--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479483.1354805436</v>
+        <v>478686.5422771003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1507104.102768261</v>
+        <v>1507104.102768262</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681851</v>
       </c>
     </row>
     <row r="9">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,46 +1294,46 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.424434953660366</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="E10" t="n">
+      <c r="K10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.424434953660365</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>244.7614098282494</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.3810469039051</v>
       </c>
       <c r="E11" t="n">
-        <v>203.6849247239066</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0701776298476</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1063819338565</v>
+        <v>292.1063819338564</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5466580439958</v>
       </c>
       <c r="I11" t="n">
-        <v>62.77221705008947</v>
+        <v>62.77221705008945</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.684718873474</v>
+        <v>71.68471887347395</v>
       </c>
       <c r="T11" t="n">
-        <v>98.44456751732338</v>
+        <v>98.44456751732335</v>
       </c>
       <c r="U11" t="n">
         <v>129.2121019163087</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>43.82739740585343</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.14843975965164</v>
+        <v>43.14843975965159</v>
       </c>
       <c r="C12" t="n">
-        <v>85.84315791132593</v>
+        <v>48.80189807670776</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>23.88873772395233</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>33.8097478564806</v>
       </c>
       <c r="F12" t="n">
-        <v>21.28254623285611</v>
+        <v>21.28254623285606</v>
       </c>
       <c r="G12" t="n">
-        <v>13.51878637814595</v>
+        <v>13.5187863781459</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7511776993283</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.83778419707257</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.52334327766837</v>
+        <v>163.7470291283616</v>
       </c>
       <c r="T12" t="n">
         <v>197.2509608550637</v>
@@ -1512,10 +1512,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.23794375778508</v>
+        <v>134.1785266449258</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.44746556789283</v>
+        <v>81.44746556789279</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.86000563999062</v>
+        <v>57.86000563999058</v>
       </c>
       <c r="C13" t="n">
-        <v>45.11286708050915</v>
+        <v>45.1128670805091</v>
       </c>
       <c r="D13" t="n">
-        <v>26.78188066382617</v>
+        <v>26.78188066382613</v>
       </c>
       <c r="E13" t="n">
-        <v>24.75093832250676</v>
+        <v>24.75093832250595</v>
       </c>
       <c r="F13" t="n">
-        <v>23.93533555911131</v>
+        <v>23.93533555911127</v>
       </c>
       <c r="G13" t="n">
-        <v>45.43054179076596</v>
+        <v>45.43054179076591</v>
       </c>
       <c r="H13" t="n">
-        <v>37.31781033732692</v>
+        <v>37.31781033732686</v>
       </c>
       <c r="I13" t="n">
-        <v>24.45690510261394</v>
+        <v>24.4569051026139</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.5847624222024</v>
+        <v>40.58476242220236</v>
       </c>
       <c r="S13" t="n">
-        <v>96.03201574400232</v>
+        <v>96.03201574400228</v>
       </c>
       <c r="T13" t="n">
         <v>105.10314554386</v>
@@ -1585,16 +1585,16 @@
         <v>163.8157466518992</v>
       </c>
       <c r="V13" t="n">
-        <v>130.712665216246</v>
+        <v>130.7126652162459</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8688910367223</v>
+        <v>163.8688910367235</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9166740816161</v>
+        <v>103.916674081616</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.52498801707503</v>
+        <v>96.52498801707499</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.4927241407019</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7614098282495</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.903420363097695</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>226.8197061017559</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1063819338565</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5466580439958</v>
       </c>
       <c r="I14" t="n">
-        <v>62.77221705008949</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68471887347403</v>
+        <v>71.68471887347401</v>
       </c>
       <c r="T14" t="n">
-        <v>98.44456751732341</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2121019163088</v>
       </c>
       <c r="V14" t="n">
         <v>206.3095356718262</v>
@@ -1673,7 +1673,7 @@
         <v>248.6379132804762</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4633859005427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.14843975965167</v>
+        <v>43.14843975965165</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>75.82932061109305</v>
+        <v>23.88873772395239</v>
       </c>
       <c r="E15" t="n">
-        <v>33.80974785648067</v>
+        <v>33.80974785648066</v>
       </c>
       <c r="F15" t="n">
-        <v>21.28254623285613</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>13.51878637814598</v>
+        <v>13.51878637814596</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7511776993283</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.83778419707257</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7470291283616</v>
+        <v>41.52334327766839</v>
       </c>
       <c r="T15" t="n">
-        <v>75.02727500437058</v>
+        <v>189.3331339372187</v>
       </c>
       <c r="U15" t="n">
         <v>102.4150216128105</v>
       </c>
       <c r="V15" t="n">
-        <v>109.685045188962</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.86000563999065</v>
+        <v>57.86000563999063</v>
       </c>
       <c r="C16" t="n">
-        <v>45.11286708050918</v>
+        <v>45.11286708050916</v>
       </c>
       <c r="D16" t="n">
-        <v>26.7818806638262</v>
+        <v>26.78188066382619</v>
       </c>
       <c r="E16" t="n">
-        <v>24.75093832250602</v>
+        <v>24.750938322506</v>
       </c>
       <c r="F16" t="n">
-        <v>23.93533555911134</v>
+        <v>23.93533555911132</v>
       </c>
       <c r="G16" t="n">
-        <v>45.430541790766</v>
+        <v>45.43054179076597</v>
       </c>
       <c r="H16" t="n">
         <v>37.31781033732693</v>
       </c>
       <c r="I16" t="n">
-        <v>24.45690510261397</v>
+        <v>24.45690510261396</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58476242220243</v>
+        <v>40.58476242220242</v>
       </c>
       <c r="S16" t="n">
         <v>96.03201574400234</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1031455438601</v>
+        <v>105.10314554386</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8157466518993</v>
+        <v>163.8157466518992</v>
       </c>
       <c r="V16" t="n">
         <v>130.712665216246</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8688910367224</v>
+        <v>163.8688910367223</v>
       </c>
       <c r="X16" t="n">
         <v>103.9166740816161</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.52498801707506</v>
+        <v>96.52498801707505</v>
       </c>
     </row>
     <row r="17">
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.87218089437944</v>
+        <v>18.9690022269634</v>
       </c>
       <c r="V17" t="n">
-        <v>96.06643598248102</v>
+        <v>105.9696146498969</v>
       </c>
       <c r="W17" t="n">
         <v>127.9665101279321</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1932,16 +1932,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H18" t="n">
         <v>107.7511776993283</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.83778419707257</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2509608550637</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6387074635036</v>
+        <v>2.075100590881168</v>
       </c>
       <c r="V18" t="n">
-        <v>194.9366217880037</v>
+        <v>9.345124167032651</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>53.00104746203526</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2056,7 +2056,7 @@
         <v>4.763224521930729</v>
       </c>
       <c r="U19" t="n">
-        <v>255.2514097007976</v>
+        <v>63.47582562996998</v>
       </c>
       <c r="V19" t="n">
         <v>30.37274419431668</v>
@@ -2065,7 +2065,7 @@
         <v>63.52897001479306</v>
       </c>
       <c r="X19" t="n">
-        <v>3.57675305968678</v>
+        <v>195.3523371305145</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.2496244513565</v>
+        <v>161.1528031187726</v>
       </c>
       <c r="C20" t="n">
         <v>144.4214888063202</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.87218089437944</v>
+        <v>18.96900222696309</v>
       </c>
       <c r="V20" t="n">
         <v>105.9696146498969</v>
@@ -2163,16 +2163,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>124.206715071051</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7470291283616</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.075100590881168</v>
+        <v>183.7903790723497</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2226,7 +2226,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>30.37274419431668</v>
       </c>
       <c r="W22" t="n">
-        <v>255.3045540856206</v>
+        <v>63.52897001479306</v>
       </c>
       <c r="X22" t="n">
-        <v>3.57675305968678</v>
+        <v>15.26864563983066</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,7 +2403,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>74.76142738474739</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7470291283616</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2509608550637</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6387074635036</v>
+        <v>2.075100590881168</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>219.8560367699535</v>
       </c>
       <c r="W24" t="n">
-        <v>27.42573987737757</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6542276414592</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>24.43903113962535</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>63.47582562996998</v>
       </c>
       <c r="V25" t="n">
-        <v>54.4941006236852</v>
+        <v>30.37274419431668</v>
       </c>
       <c r="W25" t="n">
         <v>63.52897001479306</v>
@@ -2555,7 +2555,7 @@
         <v>241.5318841583382</v>
       </c>
       <c r="C26" t="n">
-        <v>224.8005698458858</v>
+        <v>224.8005698458857</v>
       </c>
       <c r="D26" t="n">
         <v>214.4202069215415</v>
@@ -2564,7 +2564,7 @@
         <v>240.9335099222306</v>
       </c>
       <c r="F26" t="n">
-        <v>265.109337647484</v>
+        <v>265.1093376474839</v>
       </c>
       <c r="G26" t="n">
         <v>272.1455419514928</v>
@@ -2573,7 +2573,7 @@
         <v>190.5858180616322</v>
       </c>
       <c r="I26" t="n">
-        <v>42.81137706772368</v>
+        <v>42.81137706772577</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.72387889111032</v>
+        <v>51.7238788911103</v>
       </c>
       <c r="T26" t="n">
-        <v>78.48372753495971</v>
+        <v>78.48372753495968</v>
       </c>
       <c r="U26" t="n">
-        <v>109.2512619339451</v>
+        <v>109.251261933945</v>
       </c>
       <c r="V26" t="n">
         <v>186.3486956894625</v>
@@ -2621,7 +2621,7 @@
         <v>228.6770732981125</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.502545918179</v>
+        <v>244.5025459181789</v>
       </c>
     </row>
     <row r="27">
@@ -2646,10 +2646,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>15.71053728708192</v>
       </c>
       <c r="I27" t="n">
         <v>76.83778419707257</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.56250329530471</v>
+        <v>21.56250329530468</v>
       </c>
       <c r="T27" t="n">
-        <v>55.06643502200689</v>
+        <v>197.2509608550637</v>
       </c>
       <c r="U27" t="n">
         <v>224.6387074635036</v>
@@ -2694,13 +2694,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>181.9932313346339</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>62.27710377542138</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>61.48662558552914</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.89916565762695</v>
+        <v>37.89916565762692</v>
       </c>
       <c r="C28" t="n">
-        <v>25.15202709814548</v>
+        <v>25.15202709814545</v>
       </c>
       <c r="D28" t="n">
-        <v>6.821040681462506</v>
+        <v>6.821040681462478</v>
       </c>
       <c r="E28" t="n">
-        <v>4.790098340142322</v>
+        <v>4.790098340142293</v>
       </c>
       <c r="F28" t="n">
-        <v>3.974495576747643</v>
+        <v>3.974495576747614</v>
       </c>
       <c r="G28" t="n">
-        <v>25.46970180840229</v>
+        <v>25.46970180840226</v>
       </c>
       <c r="H28" t="n">
-        <v>17.35697035496325</v>
+        <v>17.35697035496322</v>
       </c>
       <c r="I28" t="n">
-        <v>4.496065120250273</v>
+        <v>4.496065120250243</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.62392243983873</v>
+        <v>20.6239224398387</v>
       </c>
       <c r="S28" t="n">
-        <v>76.07117576163866</v>
+        <v>76.07117576163863</v>
       </c>
       <c r="T28" t="n">
-        <v>85.14230556149634</v>
+        <v>85.14230556149631</v>
       </c>
       <c r="U28" t="n">
         <v>143.8549066695356</v>
@@ -2776,10 +2776,10 @@
         <v>143.9080510543587</v>
       </c>
       <c r="X28" t="n">
-        <v>83.9558340992524</v>
+        <v>83.95583409925237</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.56414803471137</v>
+        <v>76.56414803471134</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.5318841583382</v>
+        <v>241.5318841583381</v>
       </c>
       <c r="C29" t="n">
         <v>224.8005698458857</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4202069215415</v>
+        <v>214.4202069215414</v>
       </c>
       <c r="E29" t="n">
-        <v>240.9335099222306</v>
+        <v>240.9335099222305</v>
       </c>
       <c r="F29" t="n">
         <v>265.1093376474839</v>
@@ -2810,7 +2810,7 @@
         <v>190.5858180616321</v>
       </c>
       <c r="I29" t="n">
-        <v>42.81137706772577</v>
+        <v>42.81137706772572</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7238788911103</v>
+        <v>51.72387889111024</v>
       </c>
       <c r="T29" t="n">
-        <v>78.48372753495968</v>
+        <v>78.48372753495963</v>
       </c>
       <c r="U29" t="n">
         <v>109.251261933945</v>
       </c>
       <c r="V29" t="n">
-        <v>186.3486956894625</v>
+        <v>186.3486956894624</v>
       </c>
       <c r="W29" t="n">
-        <v>208.3455911674977</v>
+        <v>208.3455911674976</v>
       </c>
       <c r="X29" t="n">
-        <v>228.6770732981125</v>
+        <v>228.6770732981124</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5025459181789</v>
@@ -2871,7 +2871,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>28.84105809434411</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2880,10 +2880,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.321706250492355</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H30" t="n">
         <v>107.7511776993283</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S30" t="n">
-        <v>21.56250329530468</v>
+        <v>21.56250329530462</v>
       </c>
       <c r="T30" t="n">
-        <v>98.7682668386001</v>
+        <v>197.2509608550637</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6387074635036</v>
+        <v>197.5179937860839</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.72420520659819</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>62.27710377542132</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.89916565762692</v>
+        <v>37.89916565762687</v>
       </c>
       <c r="C31" t="n">
-        <v>25.15202709814545</v>
+        <v>25.1520270981454</v>
       </c>
       <c r="D31" t="n">
-        <v>6.821040681462478</v>
+        <v>6.821040681462421</v>
       </c>
       <c r="E31" t="n">
-        <v>4.790098340142293</v>
+        <v>4.790098340142237</v>
       </c>
       <c r="F31" t="n">
-        <v>3.974495576747614</v>
+        <v>3.974495576747557</v>
       </c>
       <c r="G31" t="n">
-        <v>25.46970180840226</v>
+        <v>25.46970180840221</v>
       </c>
       <c r="H31" t="n">
-        <v>17.35697035496322</v>
+        <v>17.35697035496316</v>
       </c>
       <c r="I31" t="n">
-        <v>4.496065120250245</v>
+        <v>4.496065120250186</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.6239224398387</v>
+        <v>20.62392243983864</v>
       </c>
       <c r="S31" t="n">
-        <v>76.07117576163863</v>
+        <v>76.07117576163857</v>
       </c>
       <c r="T31" t="n">
-        <v>85.14230556149631</v>
+        <v>85.14230556149626</v>
       </c>
       <c r="U31" t="n">
-        <v>143.8549066695356</v>
+        <v>143.8549066695355</v>
       </c>
       <c r="V31" t="n">
-        <v>110.7518252338823</v>
+        <v>110.7518252338822</v>
       </c>
       <c r="W31" t="n">
-        <v>143.9080510543587</v>
+        <v>143.9080510543586</v>
       </c>
       <c r="X31" t="n">
-        <v>83.95583409925237</v>
+        <v>83.95583409925231</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.56414803471134</v>
+        <v>76.56414803471128</v>
       </c>
     </row>
     <row r="32">
@@ -3108,13 +3108,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>26.95398973465856</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>11.9618395144314</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>153.6400158830512</v>
+        <v>19.67543493561914</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2509608550637</v>
+        <v>187.1439476097537</v>
       </c>
       <c r="U33" t="n">
         <v>224.6387074635036</v>
       </c>
       <c r="V33" t="n">
-        <v>87.8371368469127</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3205,7 +3205,7 @@
         <v>15.46990199527768</v>
       </c>
       <c r="I34" t="n">
-        <v>2.608996760564702</v>
+        <v>2.6089967605647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.73685408015316</v>
+        <v>18.73685408015315</v>
       </c>
       <c r="S34" t="n">
         <v>74.18410740195309</v>
@@ -3278,7 +3278,7 @@
         <v>186.6256101125242</v>
       </c>
       <c r="G35" t="n">
-        <v>193.661814416533</v>
+        <v>193.6618144165331</v>
       </c>
       <c r="H35" t="n">
         <v>112.1020905266724</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.76753439898532</v>
+        <v>30.76753439898533</v>
       </c>
       <c r="V35" t="n">
         <v>107.8649681545027</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3363,7 +3363,7 @@
         <v>107.7511776993283</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.83778419707257</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>35.64214365785871</v>
       </c>
       <c r="U36" t="n">
-        <v>3.970454095487047</v>
+        <v>224.6387074635036</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>11.24047767163853</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>201.377932556938</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3481,7 +3481,7 @@
         <v>65.37117913457585</v>
       </c>
       <c r="V37" t="n">
-        <v>214.5669142467209</v>
+        <v>32.26809769892256</v>
       </c>
       <c r="W37" t="n">
         <v>65.42432351939894</v>
@@ -3490,7 +3490,7 @@
         <v>5.472106564292659</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>182.2988165477983</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>186.6256101125242</v>
       </c>
       <c r="G38" t="n">
-        <v>193.661814416533</v>
+        <v>193.6618144165331</v>
       </c>
       <c r="H38" t="n">
         <v>112.1020905266724</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.76753439898532</v>
+        <v>30.76753439898533</v>
       </c>
       <c r="V38" t="n">
         <v>107.8649681545027</v>
@@ -3588,7 +3588,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2509608550637</v>
+        <v>8.796194280963695</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6387074635036</v>
+        <v>3.970454095487047</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>29.32109338198345</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>172.0402967415525</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.04761330387837</v>
       </c>
       <c r="H40" t="n">
-        <v>14.96226361659598</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.19880182030056</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>189.8080052672279</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0766909547755</v>
+        <v>173.0766909547754</v>
       </c>
       <c r="D41" t="n">
         <v>162.6963280304312</v>
@@ -3755,7 +3755,7 @@
         <v>220.4216630603825</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8619391705219</v>
+        <v>138.8619391705218</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.75984864384942</v>
+        <v>26.75984864384938</v>
       </c>
       <c r="U41" t="n">
-        <v>57.52738304283476</v>
+        <v>57.52738304283474</v>
       </c>
       <c r="V41" t="n">
         <v>134.6248167983522</v>
@@ -3819,19 +3819,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>107.7511776993283</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2509608550637</v>
+        <v>122.44259531399</v>
       </c>
       <c r="U42" t="n">
         <v>224.6387074635036</v>
       </c>
       <c r="V42" t="n">
-        <v>38.00032631548797</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>172.0365681526131</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.34729687052835</v>
+        <v>24.34729687052832</v>
       </c>
       <c r="T43" t="n">
-        <v>33.41842667038605</v>
+        <v>33.41842667038602</v>
       </c>
       <c r="U43" t="n">
-        <v>92.13102777842529</v>
+        <v>92.13102777842526</v>
       </c>
       <c r="V43" t="n">
-        <v>59.027946342772</v>
+        <v>59.02794634277197</v>
       </c>
       <c r="W43" t="n">
-        <v>92.18417216324838</v>
+        <v>92.18417216324835</v>
       </c>
       <c r="X43" t="n">
-        <v>32.2319552081421</v>
+        <v>32.23195520814207</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.84026914360106</v>
+        <v>24.84026914360103</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>189.8080052672279</v>
       </c>
       <c r="C44" t="n">
-        <v>173.0766909547755</v>
+        <v>173.0766909547754</v>
       </c>
       <c r="D44" t="n">
         <v>162.6963280304312</v>
@@ -3992,7 +3992,7 @@
         <v>220.4216630603825</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8619391705219</v>
+        <v>138.8619391705218</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.75984864384942</v>
+        <v>26.75984864384938</v>
       </c>
       <c r="U44" t="n">
-        <v>57.52738304283477</v>
+        <v>57.52738304283474</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6248167983516</v>
+        <v>134.6248167983535</v>
       </c>
       <c r="W44" t="n">
         <v>156.6217122763874</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -4065,13 +4065,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7511776993283</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7470291283616</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.34255613089658</v>
+        <v>58.74137418475996</v>
       </c>
       <c r="U45" t="n">
         <v>224.6387074635036</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>161.4981262997062</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.34729687052835</v>
+        <v>24.34729687052832</v>
       </c>
       <c r="T46" t="n">
-        <v>33.41842667038605</v>
+        <v>33.41842667038602</v>
       </c>
       <c r="U46" t="n">
-        <v>92.13102777842529</v>
+        <v>92.13102777842526</v>
       </c>
       <c r="V46" t="n">
-        <v>59.027946342772</v>
+        <v>59.02794634277197</v>
       </c>
       <c r="W46" t="n">
-        <v>92.18417216324838</v>
+        <v>92.18417216324835</v>
       </c>
       <c r="X46" t="n">
-        <v>32.2319552081421</v>
+        <v>32.23195520814207</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.84026914360106</v>
+        <v>24.84026914360103</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="F8" t="n">
-        <v>14.440376183697</v>
+        <v>8.616984447234429</v>
       </c>
       <c r="G8" t="n">
-        <v>7.072837314463837</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="H8" t="n">
-        <v>7.072837314463837</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="J8" t="n">
         <v>0.5835090784432668</v>
@@ -4808,46 +4808,46 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L8" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="M8" t="n">
-        <v>15.02535876991412</v>
+        <v>3.493732152831573</v>
       </c>
       <c r="N8" t="n">
-        <v>21.95452907642792</v>
+        <v>10.714656998567</v>
       </c>
       <c r="O8" t="n">
-        <v>21.95452907642792</v>
+        <v>17.93558184430243</v>
       </c>
       <c r="P8" t="n">
-        <v>29.17545392216334</v>
+        <v>25.15650669003785</v>
       </c>
       <c r="Q8" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R8" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S8" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="T8" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="U8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="V8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="W8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5835090784432668</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5835090784432668</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5835090784432668</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5835090784432668</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="H9" t="n">
         <v>0.5835090784432668</v>
@@ -4884,19 +4884,19 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K9" t="n">
-        <v>7.804433924178694</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="L9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="M9" t="n">
-        <v>22.24628361564955</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="N9" t="n">
-        <v>29.17545392216334</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="O9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="P9" t="n">
         <v>29.17545392216334</v>
@@ -4905,28 +4905,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R9" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="S9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V9" t="n">
-        <v>7.951047947676434</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W9" t="n">
-        <v>7.951047947676434</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X9" t="n">
-        <v>7.951047947676434</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="C10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="D10" t="n">
         <v>21.80791505293017</v>
       </c>
       <c r="E10" t="n">
-        <v>14.440376183697</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="F10" t="n">
-        <v>14.440376183697</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="G10" t="n">
+        <v>21.80791505293017</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.3185868169096</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.3185868169096</v>
+      </c>
+      <c r="J10" t="n">
         <v>7.951047947676434</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5835090784432668</v>
       </c>
       <c r="K10" t="n">
         <v>0.5835090784432668</v>
@@ -4981,31 +4981,31 @@
         <v>29.17545392216334</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="R10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="V10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="W10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="X10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1133.447955730883</v>
+        <v>1089.177857341132</v>
       </c>
       <c r="C11" t="n">
-        <v>886.2142084296208</v>
+        <v>841.9441100398699</v>
       </c>
       <c r="D11" t="n">
-        <v>886.2142084296208</v>
+        <v>605.195577813703</v>
       </c>
       <c r="E11" t="n">
-        <v>680.4718602236546</v>
+        <v>605.195577813703</v>
       </c>
       <c r="F11" t="n">
-        <v>392.5221858500711</v>
+        <v>605.195577813703</v>
       </c>
       <c r="G11" t="n">
-        <v>97.46523440173124</v>
+        <v>310.1386263653633</v>
       </c>
       <c r="H11" t="n">
-        <v>97.46523440173124</v>
+        <v>97.46523440173121</v>
       </c>
       <c r="I11" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J11" t="n">
-        <v>77.49399420876864</v>
+        <v>77.49399420876875</v>
       </c>
       <c r="K11" t="n">
         <v>264.8684520116365</v>
@@ -5075,16 +5075,16 @@
         <v>1400.582688963754</v>
       </c>
       <c r="V11" t="n">
-        <v>1400.582688963754</v>
+        <v>1356.312590574003</v>
       </c>
       <c r="W11" t="n">
-        <v>1400.582688963754</v>
+        <v>1356.312590574003</v>
       </c>
       <c r="X11" t="n">
-        <v>1400.582688963754</v>
+        <v>1356.312590574003</v>
       </c>
       <c r="Y11" t="n">
-        <v>1133.447955730883</v>
+        <v>1089.177857341132</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.1199119310827</v>
+        <v>363.2414577496647</v>
       </c>
       <c r="C12" t="n">
-        <v>374.4096514145918</v>
+        <v>313.9466112075356</v>
       </c>
       <c r="D12" t="n">
-        <v>226.8213447735357</v>
+        <v>289.8165731025333</v>
       </c>
       <c r="E12" t="n">
-        <v>69.21181577639042</v>
+        <v>255.6653126414417</v>
       </c>
       <c r="F12" t="n">
-        <v>47.71429432906102</v>
+        <v>234.1677911941124</v>
       </c>
       <c r="G12" t="n">
-        <v>34.05895455315602</v>
+        <v>220.5124514182074</v>
       </c>
       <c r="H12" t="n">
-        <v>34.05895455315602</v>
+        <v>111.6728779845425</v>
       </c>
       <c r="I12" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J12" t="n">
-        <v>67.71061179410961</v>
+        <v>67.71061179410958</v>
       </c>
       <c r="K12" t="n">
-        <v>251.8322672082864</v>
+        <v>67.71061179410958</v>
       </c>
       <c r="L12" t="n">
-        <v>560.2561618994116</v>
+        <v>376.1345064852347</v>
       </c>
       <c r="M12" t="n">
-        <v>972.9724936633822</v>
+        <v>788.8508382492055</v>
       </c>
       <c r="N12" t="n">
-        <v>1000.642560952776</v>
+        <v>1210.330400844511</v>
       </c>
       <c r="O12" t="n">
-        <v>1334.648938987742</v>
+        <v>1451.304703840984</v>
       </c>
       <c r="P12" t="n">
-        <v>1586.291962804559</v>
+        <v>1702.947727657801</v>
       </c>
       <c r="Q12" t="n">
         <v>1702.947727657801</v>
       </c>
       <c r="R12" t="n">
-        <v>1624.902678063629</v>
+        <v>1702.947727657801</v>
       </c>
       <c r="S12" t="n">
-        <v>1582.959907076085</v>
+        <v>1537.546688134203</v>
       </c>
       <c r="T12" t="n">
-        <v>1383.71651227299</v>
+        <v>1338.303293331108</v>
       </c>
       <c r="U12" t="n">
-        <v>1156.80872695632</v>
+        <v>1111.395508014438</v>
       </c>
       <c r="V12" t="n">
-        <v>922.5574834819206</v>
+        <v>877.1442645400386</v>
       </c>
       <c r="W12" t="n">
-        <v>670.0429918152539</v>
+        <v>624.629772873372</v>
       </c>
       <c r="X12" t="n">
-        <v>586.9743617568852</v>
+        <v>489.0959075754671</v>
       </c>
       <c r="Y12" t="n">
-        <v>504.7041945165894</v>
+        <v>406.8257403351714</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.1461049134186</v>
+        <v>264.1461049134178</v>
       </c>
       <c r="C13" t="n">
-        <v>218.5775523068438</v>
+        <v>218.577552306843</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5251475959083</v>
+        <v>191.5251475959074</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5241997953966</v>
+        <v>166.5241997953964</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3470931700316</v>
+        <v>142.3470931700315</v>
       </c>
       <c r="G13" t="n">
-        <v>96.45765701774273</v>
+        <v>96.45765701774265</v>
       </c>
       <c r="H13" t="n">
-        <v>58.76289910125092</v>
+        <v>58.76289910125087</v>
       </c>
       <c r="I13" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J13" t="n">
         <v>83.58358974324472</v>
@@ -5203,46 +5203,46 @@
         <v>217.0296285351743</v>
       </c>
       <c r="L13" t="n">
-        <v>409.7594830851589</v>
+        <v>409.7594830851592</v>
       </c>
       <c r="M13" t="n">
-        <v>616.981378295844</v>
+        <v>616.9813782958443</v>
       </c>
       <c r="N13" t="n">
-        <v>827.2944059024668</v>
+        <v>827.2944059024669</v>
       </c>
       <c r="O13" t="n">
         <v>1015.452956687545</v>
       </c>
       <c r="P13" t="n">
-        <v>1170.696426617094</v>
+        <v>1170.696426617095</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.245998199897</v>
+        <v>1232.245998199898</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.251288682521</v>
+        <v>1191.251288682522</v>
       </c>
       <c r="S13" t="n">
-        <v>1094.249252577468</v>
+        <v>1094.249252577469</v>
       </c>
       <c r="T13" t="n">
-        <v>988.0844590988219</v>
+        <v>988.0844590988223</v>
       </c>
       <c r="U13" t="n">
-        <v>822.6140079352873</v>
+        <v>822.6140079352878</v>
       </c>
       <c r="V13" t="n">
-        <v>690.581012767362</v>
+        <v>690.5810127673626</v>
       </c>
       <c r="W13" t="n">
-        <v>525.0568804070365</v>
+        <v>525.0568804070356</v>
       </c>
       <c r="X13" t="n">
-        <v>420.0905429508587</v>
+        <v>420.0905429508578</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.5905550548233</v>
+        <v>322.5905550548225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>573.8097959471916</v>
+        <v>545.7321468167418</v>
       </c>
       <c r="C14" t="n">
-        <v>326.5760486459292</v>
+        <v>545.7321468167418</v>
       </c>
       <c r="D14" t="n">
-        <v>326.5760486459292</v>
+        <v>541.7892979651281</v>
       </c>
       <c r="E14" t="n">
-        <v>326.5760486459292</v>
+        <v>541.7892979651281</v>
       </c>
       <c r="F14" t="n">
-        <v>97.46523440173127</v>
+        <v>541.7892979651281</v>
       </c>
       <c r="G14" t="n">
-        <v>97.46523440173127</v>
+        <v>246.7323465167882</v>
       </c>
       <c r="H14" t="n">
-        <v>97.46523440173127</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I14" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J14" t="n">
-        <v>77.49399420876861</v>
+        <v>77.49399420876875</v>
       </c>
       <c r="K14" t="n">
-        <v>264.8684520116364</v>
+        <v>264.8684520116365</v>
       </c>
       <c r="L14" t="n">
         <v>549.2921138221825</v>
@@ -5306,22 +5306,22 @@
         <v>1630.538920714898</v>
       </c>
       <c r="T14" t="n">
-        <v>1531.099963626693</v>
+        <v>1630.538920714898</v>
       </c>
       <c r="U14" t="n">
-        <v>1531.099963626693</v>
+        <v>1500.02164605196</v>
       </c>
       <c r="V14" t="n">
-        <v>1322.706493251111</v>
+        <v>1291.628175676378</v>
       </c>
       <c r="W14" t="n">
-        <v>1092.093936534079</v>
+        <v>1061.015618959346</v>
       </c>
       <c r="X14" t="n">
-        <v>840.9445291800629</v>
+        <v>809.8662116053295</v>
       </c>
       <c r="Y14" t="n">
-        <v>573.8097959471916</v>
+        <v>809.8662116053295</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>539.1649615252547</v>
+        <v>423.704497956721</v>
       </c>
       <c r="C15" t="n">
-        <v>366.4118464470719</v>
+        <v>250.9513828785381</v>
       </c>
       <c r="D15" t="n">
-        <v>289.8165731025335</v>
+        <v>226.8213447735357</v>
       </c>
       <c r="E15" t="n">
-        <v>255.6653126414419</v>
+        <v>192.6700843124442</v>
       </c>
       <c r="F15" t="n">
-        <v>234.1677911941125</v>
+        <v>47.71429432906103</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5124514182074</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6728779845425</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I15" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J15" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="K15" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4466665934994</v>
+        <v>342.4828492442812</v>
       </c>
       <c r="M15" t="n">
-        <v>579.1629983574701</v>
+        <v>755.1991810082518</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.642560952776</v>
+        <v>1176.678743603557</v>
       </c>
       <c r="O15" t="n">
-        <v>1334.648938987742</v>
+        <v>1510.685121638524</v>
       </c>
       <c r="P15" t="n">
-        <v>1586.291962804559</v>
+        <v>1702.947727657801</v>
       </c>
       <c r="Q15" t="n">
         <v>1702.947727657801</v>
@@ -5382,25 +5382,25 @@
         <v>1702.947727657801</v>
       </c>
       <c r="S15" t="n">
-        <v>1537.546688134203</v>
+        <v>1661.004956670257</v>
       </c>
       <c r="T15" t="n">
-        <v>1461.761561867162</v>
+        <v>1469.759366834682</v>
       </c>
       <c r="U15" t="n">
-        <v>1358.312045086546</v>
+        <v>1366.309850054066</v>
       </c>
       <c r="V15" t="n">
-        <v>1247.5190701482</v>
+        <v>1132.058606579667</v>
       </c>
       <c r="W15" t="n">
-        <v>995.0045784815335</v>
+        <v>879.5441149129997</v>
       </c>
       <c r="X15" t="n">
-        <v>788.477679887111</v>
+        <v>673.0172163185772</v>
       </c>
       <c r="Y15" t="n">
-        <v>582.7492441107614</v>
+        <v>467.2887805422277</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.1461049134183</v>
+        <v>264.146104913418</v>
       </c>
       <c r="C16" t="n">
-        <v>218.5775523068434</v>
+        <v>218.577552306843</v>
       </c>
       <c r="D16" t="n">
-        <v>191.5251475959078</v>
+        <v>191.5251475959075</v>
       </c>
       <c r="E16" t="n">
-        <v>166.5241997953967</v>
+        <v>166.5241997953964</v>
       </c>
       <c r="F16" t="n">
-        <v>142.3470931700317</v>
+        <v>142.3470931700313</v>
       </c>
       <c r="G16" t="n">
         <v>96.45765701774278</v>
@@ -5431,10 +5431,10 @@
         <v>58.76289910125092</v>
       </c>
       <c r="I16" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J16" t="n">
-        <v>83.5835897432446</v>
+        <v>83.58358974324469</v>
       </c>
       <c r="K16" t="n">
         <v>217.0296285351742</v>
@@ -5443,10 +5443,10 @@
         <v>409.759483085159</v>
       </c>
       <c r="M16" t="n">
-        <v>616.9813782958439</v>
+        <v>616.9813782958438</v>
       </c>
       <c r="N16" t="n">
-        <v>827.2944059024666</v>
+        <v>827.2944059024665</v>
       </c>
       <c r="O16" t="n">
         <v>1015.452956687544</v>
@@ -5464,22 +5464,22 @@
         <v>1094.249252577468</v>
       </c>
       <c r="T16" t="n">
-        <v>988.0844590988218</v>
+        <v>988.0844590988214</v>
       </c>
       <c r="U16" t="n">
-        <v>822.6140079352872</v>
+        <v>822.614007935287</v>
       </c>
       <c r="V16" t="n">
-        <v>690.5810127673619</v>
+        <v>690.5810127673616</v>
       </c>
       <c r="W16" t="n">
-        <v>525.0568804070364</v>
+        <v>525.0568804070359</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0905429508584</v>
+        <v>420.090542950858</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.590555054823</v>
+        <v>322.5905550548226</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>969.1301647681793</v>
       </c>
       <c r="C17" t="n">
-        <v>823.2498730446234</v>
+        <v>823.2498730446235</v>
       </c>
       <c r="D17" t="n">
-        <v>687.8547963961628</v>
+        <v>687.854796396163</v>
       </c>
       <c r="E17" t="n">
-        <v>525.6786056055921</v>
+        <v>525.6786056055923</v>
       </c>
       <c r="F17" t="n">
-        <v>339.0823868097149</v>
+        <v>339.0823868097151</v>
       </c>
       <c r="G17" t="n">
         <v>145.3788909390818</v>
       </c>
       <c r="H17" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I17" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J17" t="n">
-        <v>77.4939942087686</v>
+        <v>77.49399420876861</v>
       </c>
       <c r="K17" t="n">
         <v>264.8684520116364</v>
@@ -5522,7 +5522,7 @@
         <v>549.2921138221824</v>
       </c>
       <c r="M17" t="n">
-        <v>880.9805340169846</v>
+        <v>880.9805340169847</v>
       </c>
       <c r="N17" t="n">
         <v>1202.518844627836</v>
@@ -5537,16 +5537,16 @@
         <v>1702.947727657801</v>
       </c>
       <c r="R17" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="S17" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="T17" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="U17" t="n">
-        <v>1673.783908572569</v>
+        <v>1683.787119347737</v>
       </c>
       <c r="V17" t="n">
         <v>1576.747104549861</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>620.8494787032052</v>
+        <v>980.5328004299336</v>
       </c>
       <c r="C18" t="n">
-        <v>448.0963636250224</v>
+        <v>807.7796853517507</v>
       </c>
       <c r="D18" t="n">
-        <v>300.5080569839663</v>
+        <v>660.1913787106946</v>
       </c>
       <c r="E18" t="n">
-        <v>142.898527986821</v>
+        <v>502.5818497135493</v>
       </c>
       <c r="F18" t="n">
-        <v>142.898527986821</v>
+        <v>357.6260597301662</v>
       </c>
       <c r="G18" t="n">
-        <v>142.898527986821</v>
+        <v>220.5124514182074</v>
       </c>
       <c r="H18" t="n">
-        <v>34.05895455315602</v>
+        <v>111.6728779845425</v>
       </c>
       <c r="I18" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J18" t="n">
-        <v>34.05895455315602</v>
+        <v>67.71061179410961</v>
       </c>
       <c r="K18" t="n">
-        <v>34.05895455315602</v>
+        <v>251.8322672082865</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4466665934994</v>
+        <v>560.2561618994116</v>
       </c>
       <c r="M18" t="n">
-        <v>579.1629983574701</v>
+        <v>972.9724936633824</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.642560952776</v>
+        <v>1000.642560952775</v>
       </c>
       <c r="O18" t="n">
         <v>1334.648938987742</v>
       </c>
       <c r="P18" t="n">
-        <v>1586.291962804559</v>
+        <v>1586.291962804558</v>
       </c>
       <c r="Q18" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="R18" t="n">
-        <v>1702.947727657801</v>
+        <v>1624.902678063628</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.947727657801</v>
+        <v>1624.902678063628</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.704332854706</v>
+        <v>1624.902678063628</v>
       </c>
       <c r="U18" t="n">
-        <v>1276.796547538036</v>
+        <v>1622.806616860718</v>
       </c>
       <c r="V18" t="n">
-        <v>1079.890868964294</v>
+        <v>1613.367097500079</v>
       </c>
       <c r="W18" t="n">
-        <v>827.3763772976278</v>
+        <v>1559.830685922266</v>
       </c>
       <c r="X18" t="n">
-        <v>620.8494787032052</v>
+        <v>1353.303787327843</v>
       </c>
       <c r="Y18" t="n">
-        <v>620.8494787032052</v>
+        <v>1147.575351551494</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="D19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="E19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="F19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="G19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="H19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="K19" t="n">
         <v>46.50354435289933</v>
@@ -5680,43 +5680,43 @@
         <v>118.2319499106979</v>
       </c>
       <c r="M19" t="n">
-        <v>204.4523961291967</v>
+        <v>204.4523961291968</v>
       </c>
       <c r="N19" t="n">
         <v>293.7639747436331</v>
       </c>
       <c r="O19" t="n">
-        <v>360.9210765365245</v>
+        <v>360.9210765365247</v>
       </c>
       <c r="P19" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="R19" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="S19" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="T19" t="n">
-        <v>390.351759572948</v>
+        <v>390.3517595729481</v>
       </c>
       <c r="U19" t="n">
-        <v>132.5220528044656</v>
+        <v>326.2347639871199</v>
       </c>
       <c r="V19" t="n">
-        <v>101.8425132142468</v>
+        <v>295.555224396901</v>
       </c>
       <c r="W19" t="n">
-        <v>37.67183643162752</v>
+        <v>231.3845476142818</v>
       </c>
       <c r="X19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>969.1301647681794</v>
+        <v>969.1301647681792</v>
       </c>
       <c r="C20" t="n">
-        <v>823.2498730446237</v>
+        <v>823.2498730446238</v>
       </c>
       <c r="D20" t="n">
-        <v>687.8547963961631</v>
+        <v>687.8547963961632</v>
       </c>
       <c r="E20" t="n">
-        <v>525.6786056055923</v>
+        <v>525.6786056055926</v>
       </c>
       <c r="F20" t="n">
-        <v>339.0823868097152</v>
+        <v>339.0823868097153</v>
       </c>
       <c r="G20" t="n">
         <v>145.3788909390818</v>
       </c>
       <c r="H20" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I20" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J20" t="n">
-        <v>77.49399420876864</v>
+        <v>77.49399420876861</v>
       </c>
       <c r="K20" t="n">
-        <v>264.8684520116365</v>
+        <v>264.8684520116364</v>
       </c>
       <c r="L20" t="n">
-        <v>549.2921138221825</v>
+        <v>549.2921138221824</v>
       </c>
       <c r="M20" t="n">
         <v>880.9805340169847</v>
@@ -5771,31 +5771,31 @@
         <v>1642.833954791856</v>
       </c>
       <c r="Q20" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="R20" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="S20" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="T20" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="U20" t="n">
-        <v>1673.783908572569</v>
+        <v>1683.787119347736</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.743893774693</v>
+        <v>1576.747104549861</v>
       </c>
       <c r="W20" t="n">
-        <v>1437.484792635368</v>
+        <v>1447.488003410536</v>
       </c>
       <c r="X20" t="n">
-        <v>1287.688840859058</v>
+        <v>1297.692051634226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1121.907563203893</v>
+        <v>1131.910773979061</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>469.3870062978946</v>
+        <v>656.9656952529234</v>
       </c>
       <c r="C21" t="n">
-        <v>296.6338912197118</v>
+        <v>484.2125801747406</v>
       </c>
       <c r="D21" t="n">
-        <v>296.6338912197118</v>
+        <v>336.6242735336845</v>
       </c>
       <c r="E21" t="n">
-        <v>296.6338912197118</v>
+        <v>179.0147445365392</v>
       </c>
       <c r="F21" t="n">
-        <v>171.1725628651148</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="G21" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="H21" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I21" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J21" t="n">
         <v>67.71061179410961</v>
       </c>
       <c r="K21" t="n">
-        <v>67.71061179410961</v>
+        <v>251.8322672082865</v>
       </c>
       <c r="L21" t="n">
-        <v>376.1345064852349</v>
+        <v>560.2561618994116</v>
       </c>
       <c r="M21" t="n">
-        <v>788.8508382492055</v>
+        <v>972.9724936633824</v>
       </c>
       <c r="N21" t="n">
-        <v>1000.642560952776</v>
+        <v>1117.298325806017</v>
       </c>
       <c r="O21" t="n">
-        <v>1334.648938987742</v>
+        <v>1451.304703840984</v>
       </c>
       <c r="P21" t="n">
-        <v>1586.291962804559</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="Q21" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="R21" t="n">
-        <v>1702.947727657801</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="S21" t="n">
-        <v>1537.546688134203</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="T21" t="n">
-        <v>1537.546688134203</v>
+        <v>1702.9477276578</v>
       </c>
       <c r="U21" t="n">
-        <v>1535.450626931293</v>
+        <v>1517.300880109972</v>
       </c>
       <c r="V21" t="n">
-        <v>1301.199383456894</v>
+        <v>1283.049636635573</v>
       </c>
       <c r="W21" t="n">
-        <v>1048.684891790227</v>
+        <v>1030.535144968906</v>
       </c>
       <c r="X21" t="n">
-        <v>842.1579931958046</v>
+        <v>824.0082463744839</v>
       </c>
       <c r="Y21" t="n">
-        <v>636.429557419455</v>
+        <v>824.0082463744839</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="D22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="E22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="F22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="G22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="H22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="I22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="J22" t="n">
-        <v>34.05895455315602</v>
+        <v>34.05895455315601</v>
       </c>
       <c r="K22" t="n">
         <v>46.50354435289933</v>
@@ -5917,43 +5917,43 @@
         <v>118.2319499106979</v>
       </c>
       <c r="M22" t="n">
-        <v>204.4523961291967</v>
+        <v>204.4523961291968</v>
       </c>
       <c r="N22" t="n">
         <v>293.7639747436331</v>
       </c>
       <c r="O22" t="n">
-        <v>360.9210765365245</v>
+        <v>360.9210765365247</v>
       </c>
       <c r="P22" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="R22" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="S22" t="n">
-        <v>395.1630974738882</v>
+        <v>395.1630974738883</v>
       </c>
       <c r="T22" t="n">
-        <v>390.351759572948</v>
+        <v>390.3517595729481</v>
       </c>
       <c r="U22" t="n">
-        <v>326.2347639871198</v>
+        <v>326.2347639871199</v>
       </c>
       <c r="V22" t="n">
-        <v>295.5552243969009</v>
+        <v>295.555224396901</v>
       </c>
       <c r="W22" t="n">
-        <v>37.67183643162752</v>
+        <v>231.3845476142818</v>
       </c>
       <c r="X22" t="n">
-        <v>34.05895455315602</v>
+        <v>215.9616732306144</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.05895455315602</v>
+        <v>215.9616732306144</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>969.3343119268555</v>
+        <v>969.3343119268554</v>
       </c>
       <c r="C23" t="n">
-        <v>823.4540202032998</v>
+        <v>823.4540202032997</v>
       </c>
       <c r="D23" t="n">
-        <v>688.0589435548393</v>
+        <v>688.0589435548391</v>
       </c>
       <c r="E23" t="n">
-        <v>525.8827527642686</v>
+        <v>525.8827527642684</v>
       </c>
       <c r="F23" t="n">
-        <v>339.2865339683914</v>
+        <v>339.2865339683913</v>
       </c>
       <c r="G23" t="n">
         <v>145.5830380977587</v>
@@ -5984,34 +5984,34 @@
         <v>34.2631017118329</v>
       </c>
       <c r="I23" t="n">
-        <v>34.2631017118329</v>
+        <v>44.26631248699982</v>
       </c>
       <c r="J23" t="n">
-        <v>77.69814136744549</v>
+        <v>87.70135214261242</v>
       </c>
       <c r="K23" t="n">
-        <v>265.0725991703132</v>
+        <v>275.0758099454802</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4962609808592</v>
+        <v>559.4994717560262</v>
       </c>
       <c r="M23" t="n">
-        <v>881.1846811756616</v>
+        <v>891.1878919508285</v>
       </c>
       <c r="N23" t="n">
-        <v>1202.722991786513</v>
+        <v>1212.72620256168</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.214149380524</v>
+        <v>1470.217360155691</v>
       </c>
       <c r="P23" t="n">
-        <v>1643.038101950533</v>
+        <v>1653.0413127257</v>
       </c>
       <c r="Q23" t="n">
-        <v>1703.151874816478</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="R23" t="n">
-        <v>1703.151874816478</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="S23" t="n">
         <v>1713.155085591645</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>575.0769067323816</v>
+        <v>657.1698424116003</v>
       </c>
       <c r="C24" t="n">
-        <v>402.3237916541988</v>
+        <v>484.4167273334174</v>
       </c>
       <c r="D24" t="n">
-        <v>254.7354850131427</v>
+        <v>336.8284206923613</v>
       </c>
       <c r="E24" t="n">
-        <v>254.7354850131427</v>
+        <v>179.218891695216</v>
       </c>
       <c r="F24" t="n">
-        <v>109.7796950297596</v>
+        <v>34.2631017118329</v>
       </c>
       <c r="G24" t="n">
-        <v>109.7796950297596</v>
+        <v>34.2631017118329</v>
       </c>
       <c r="H24" t="n">
         <v>34.2631017118329</v>
@@ -6078,40 +6078,40 @@
         <v>973.1766408220593</v>
       </c>
       <c r="N24" t="n">
-        <v>1010.84991888662</v>
+        <v>1397.182524505991</v>
       </c>
       <c r="O24" t="n">
-        <v>1344.856296921586</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="P24" t="n">
-        <v>1596.499320738403</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.155085591645</v>
       </c>
       <c r="R24" t="n">
-        <v>1635.110035997473</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="S24" t="n">
-        <v>1469.708996473875</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="T24" t="n">
-        <v>1270.46560167078</v>
+        <v>1713.155085591645</v>
       </c>
       <c r="U24" t="n">
-        <v>1043.55781635411</v>
+        <v>1711.059024388735</v>
       </c>
       <c r="V24" t="n">
-        <v>809.3065728797108</v>
+        <v>1488.9822195706</v>
       </c>
       <c r="W24" t="n">
-        <v>781.6038053268041</v>
+        <v>1236.467727903933</v>
       </c>
       <c r="X24" t="n">
-        <v>575.0769067323816</v>
+        <v>1029.94082930951</v>
       </c>
       <c r="Y24" t="n">
-        <v>575.0769067323816</v>
+        <v>824.2123935331607</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>203.6108064001755</v>
+        <v>227.9758128944871</v>
       </c>
       <c r="C25" t="n">
-        <v>203.6108064001755</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="D25" t="n">
-        <v>203.6108064001755</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="E25" t="n">
-        <v>203.6108064001755</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="F25" t="n">
-        <v>203.6108064001755</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="G25" t="n">
-        <v>34.2631017118329</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="H25" t="n">
-        <v>34.2631017118329</v>
+        <v>58.9489917518585</v>
       </c>
       <c r="I25" t="n">
         <v>34.2631017118329</v>
@@ -6181,16 +6181,16 @@
         <v>326.4389111457967</v>
       </c>
       <c r="V25" t="n">
-        <v>271.3943650612662</v>
+        <v>295.7593715555778</v>
       </c>
       <c r="W25" t="n">
-        <v>207.223688278647</v>
+        <v>231.5886947729586</v>
       </c>
       <c r="X25" t="n">
-        <v>203.6108064001755</v>
+        <v>227.9758128944871</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.6108064001755</v>
+        <v>227.9758128944871</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.174247155044</v>
+        <v>1523.174247155045</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.102964482432</v>
+        <v>1296.102964482433</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.516896884915</v>
+        <v>1079.516896884916</v>
       </c>
       <c r="E26" t="n">
-        <v>836.1497151452884</v>
+        <v>836.1497151452895</v>
       </c>
       <c r="F26" t="n">
-        <v>568.362505400355</v>
+        <v>568.3625054003562</v>
       </c>
       <c r="G26" t="n">
-        <v>293.4680185806645</v>
+        <v>293.4680185806666</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9570912456825</v>
+        <v>100.9570912456846</v>
       </c>
       <c r="I26" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9109962560979</v>
+        <v>241.9109962560985</v>
       </c>
       <c r="K26" t="n">
-        <v>570.0481346336919</v>
+        <v>570.0481346336926</v>
       </c>
       <c r="L26" t="n">
-        <v>995.2344770189643</v>
+        <v>995.2344770189649</v>
       </c>
       <c r="M26" t="n">
         <v>1467.685577788493</v>
@@ -6242,34 +6242,34 @@
         <v>2328.240407142808</v>
       </c>
       <c r="P26" t="n">
-        <v>2651.827040287543</v>
+        <v>2651.827040287544</v>
       </c>
       <c r="Q26" t="n">
-        <v>2852.703493728214</v>
+        <v>2852.703493728215</v>
       </c>
       <c r="R26" t="n">
         <v>2885.663801287978</v>
       </c>
       <c r="S26" t="n">
-        <v>2833.417458973725</v>
+        <v>2833.417458973726</v>
       </c>
       <c r="T26" t="n">
-        <v>2754.14096651417</v>
+        <v>2754.140966514171</v>
       </c>
       <c r="U26" t="n">
-        <v>2643.786156479882</v>
+        <v>2643.786156479883</v>
       </c>
       <c r="V26" t="n">
         <v>2455.555150732951</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.105058644569</v>
+        <v>2245.10505864457</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.118115919203</v>
+        <v>2014.118115919204</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.145847314981</v>
+        <v>1767.145847314982</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>758.2339401569134</v>
+        <v>911.2167780517831</v>
       </c>
       <c r="C27" t="n">
-        <v>585.4808250787305</v>
+        <v>738.4636629736003</v>
       </c>
       <c r="D27" t="n">
-        <v>437.8925184376744</v>
+        <v>590.8753563325442</v>
       </c>
       <c r="E27" t="n">
-        <v>280.2829894405291</v>
+        <v>433.265827335399</v>
       </c>
       <c r="F27" t="n">
-        <v>135.327199457146</v>
+        <v>288.3100373520158</v>
       </c>
       <c r="G27" t="n">
-        <v>135.327199457146</v>
+        <v>151.196429040057</v>
       </c>
       <c r="H27" t="n">
         <v>135.327199457146</v>
       </c>
       <c r="I27" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J27" t="n">
-        <v>91.36493326671315</v>
+        <v>91.36493326671317</v>
       </c>
       <c r="K27" t="n">
         <v>275.48658868089</v>
@@ -6327,28 +6327,28 @@
         <v>2137.970418834433</v>
       </c>
       <c r="R27" t="n">
-        <v>2059.92536924026</v>
+        <v>2137.970418834433</v>
       </c>
       <c r="S27" t="n">
-        <v>2038.145062881367</v>
+        <v>2116.190112475539</v>
       </c>
       <c r="T27" t="n">
-        <v>1982.522401242976</v>
+        <v>1916.946717672444</v>
       </c>
       <c r="U27" t="n">
-        <v>1755.614615926306</v>
+        <v>1690.038932355774</v>
       </c>
       <c r="V27" t="n">
-        <v>1521.363372451907</v>
+        <v>1455.787688881375</v>
       </c>
       <c r="W27" t="n">
-        <v>1337.531825649246</v>
+        <v>1203.273197214708</v>
       </c>
       <c r="X27" t="n">
-        <v>1131.004927054823</v>
+        <v>1140.367031784989</v>
       </c>
       <c r="Y27" t="n">
-        <v>925.2764912784738</v>
+        <v>1078.259329173344</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.6631739854705</v>
+        <v>146.6631739854703</v>
       </c>
       <c r="C28" t="n">
-        <v>121.2570860075457</v>
+        <v>121.2570860075455</v>
       </c>
       <c r="D28" t="n">
-        <v>114.3671459252603</v>
+        <v>114.3671459252602</v>
       </c>
       <c r="E28" t="n">
-        <v>109.5286627533994</v>
+        <v>109.5286627533993</v>
       </c>
       <c r="F28" t="n">
-        <v>105.5140207566846</v>
+        <v>105.5140207566845</v>
       </c>
       <c r="G28" t="n">
-        <v>79.78704923304595</v>
+        <v>79.78704923304589</v>
       </c>
       <c r="H28" t="n">
-        <v>62.25475594520428</v>
+        <v>62.25475594520426</v>
       </c>
       <c r="I28" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J28" t="n">
-        <v>68.59789780384344</v>
+        <v>126.9991427983883</v>
       </c>
       <c r="K28" t="n">
-        <v>81.04248760358675</v>
+        <v>139.4437325981316</v>
       </c>
       <c r="L28" t="n">
-        <v>152.7708931613853</v>
+        <v>211.1721381559302</v>
       </c>
       <c r="M28" t="n">
-        <v>379.7540199546104</v>
+        <v>379.75401995461</v>
       </c>
       <c r="N28" t="n">
-        <v>609.8282791437731</v>
+        <v>609.8282791437728</v>
       </c>
       <c r="O28" t="n">
-        <v>817.7480615113909</v>
+        <v>817.7480615113906</v>
       </c>
       <c r="P28" t="n">
-        <v>851.9900824487545</v>
+        <v>851.9900824487542</v>
       </c>
       <c r="Q28" t="n">
-        <v>933.3008856140976</v>
+        <v>933.3008856140973</v>
       </c>
       <c r="R28" t="n">
-        <v>912.4686407253716</v>
+        <v>912.4686407253713</v>
       </c>
       <c r="S28" t="n">
-        <v>835.629069248969</v>
+        <v>835.6290692489687</v>
       </c>
       <c r="T28" t="n">
-        <v>749.6267403989727</v>
+        <v>749.6267403989724</v>
       </c>
       <c r="U28" t="n">
-        <v>604.3187538640883</v>
+        <v>604.318753864088</v>
       </c>
       <c r="V28" t="n">
-        <v>492.4482233248133</v>
+        <v>492.448223324813</v>
       </c>
       <c r="W28" t="n">
-        <v>347.0865555931379</v>
+        <v>347.0865555931376</v>
       </c>
       <c r="X28" t="n">
-        <v>262.2826827656102</v>
+        <v>262.2826827656099</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.9451594982249</v>
+        <v>184.9451594982247</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1296.102964482433</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.516896884917</v>
+        <v>1079.516896884916</v>
       </c>
       <c r="E29" t="n">
-        <v>836.14971514529</v>
+        <v>836.1497151452895</v>
       </c>
       <c r="F29" t="n">
-        <v>568.3625054003567</v>
+        <v>568.3625054003562</v>
       </c>
       <c r="G29" t="n">
-        <v>293.4680185806669</v>
+        <v>293.4680185806665</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9570912456846</v>
+        <v>100.9570912456845</v>
       </c>
       <c r="I29" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9109962560979</v>
+        <v>241.9109962560985</v>
       </c>
       <c r="K29" t="n">
-        <v>570.0481346336919</v>
+        <v>570.0481346336923</v>
       </c>
       <c r="L29" t="n">
-        <v>995.2344770189644</v>
+        <v>995.2344770189648</v>
       </c>
       <c r="M29" t="n">
         <v>1467.685577788493</v>
@@ -6479,16 +6479,16 @@
         <v>2328.240407142808</v>
       </c>
       <c r="P29" t="n">
-        <v>2651.827040287543</v>
+        <v>2651.827040287544</v>
       </c>
       <c r="Q29" t="n">
-        <v>2852.703493728214</v>
+        <v>2852.703493728215</v>
       </c>
       <c r="R29" t="n">
         <v>2885.663801287978</v>
       </c>
       <c r="S29" t="n">
-        <v>2833.417458973725</v>
+        <v>2833.417458973726</v>
       </c>
       <c r="T29" t="n">
         <v>2754.14096651417</v>
@@ -6500,13 +6500,13 @@
         <v>2455.555150732951</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.10505864457</v>
+        <v>2245.105058644569</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.118115919204</v>
+        <v>2014.118115919203</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.145847314983</v>
+        <v>1767.145847314982</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>723.4527804258744</v>
+        <v>860.5663887378332</v>
       </c>
       <c r="C30" t="n">
-        <v>694.3203985123955</v>
+        <v>687.8132736596503</v>
       </c>
       <c r="D30" t="n">
-        <v>546.7320918713394</v>
+        <v>540.2249670185942</v>
       </c>
       <c r="E30" t="n">
-        <v>389.1225628741942</v>
+        <v>382.6154380214489</v>
       </c>
       <c r="F30" t="n">
-        <v>244.166772890811</v>
+        <v>381.2803812027697</v>
       </c>
       <c r="G30" t="n">
         <v>244.166772890811</v>
@@ -6537,10 +6537,10 @@
         <v>135.327199457146</v>
       </c>
       <c r="I30" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J30" t="n">
-        <v>91.36493326671315</v>
+        <v>91.36493326671317</v>
       </c>
       <c r="K30" t="n">
         <v>275.48658868089</v>
@@ -6564,28 +6564,28 @@
         <v>2137.970418834433</v>
       </c>
       <c r="R30" t="n">
-        <v>2137.970418834433</v>
+        <v>2059.92536924026</v>
       </c>
       <c r="S30" t="n">
-        <v>2116.190112475539</v>
+        <v>2038.145062881367</v>
       </c>
       <c r="T30" t="n">
-        <v>2016.424186375943</v>
+        <v>1838.901668078272</v>
       </c>
       <c r="U30" t="n">
-        <v>1789.516401059273</v>
+        <v>1639.388543041824</v>
       </c>
       <c r="V30" t="n">
-        <v>1555.265157584874</v>
+        <v>1548.758032732128</v>
       </c>
       <c r="W30" t="n">
-        <v>1302.750665918207</v>
+        <v>1296.243541065462</v>
       </c>
       <c r="X30" t="n">
-        <v>1096.223767323784</v>
+        <v>1233.337375635743</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.4953315474348</v>
+        <v>1027.608939859394</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.6631739854703</v>
+        <v>146.6631739854699</v>
       </c>
       <c r="C31" t="n">
-        <v>121.2570860075455</v>
+        <v>121.2570860075452</v>
       </c>
       <c r="D31" t="n">
-        <v>114.3671459252602</v>
+        <v>114.3671459252599</v>
       </c>
       <c r="E31" t="n">
-        <v>109.5286627533993</v>
+        <v>109.5286627533991</v>
       </c>
       <c r="F31" t="n">
-        <v>105.5140207566845</v>
+        <v>105.5140207566844</v>
       </c>
       <c r="G31" t="n">
-        <v>79.78704923304589</v>
+        <v>79.78704923304578</v>
       </c>
       <c r="H31" t="n">
-        <v>62.25475594520425</v>
+        <v>62.2547559452042</v>
       </c>
       <c r="I31" t="n">
-        <v>57.71327602575956</v>
+        <v>57.71327602575957</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9991427983883</v>
+        <v>126.9991427983884</v>
       </c>
       <c r="K31" t="n">
-        <v>162.3532907689295</v>
+        <v>280.206413172858</v>
       </c>
       <c r="L31" t="n">
-        <v>374.8443769014544</v>
+        <v>492.697499305383</v>
       </c>
       <c r="M31" t="n">
-        <v>601.8275036946795</v>
+        <v>578.9179455238818</v>
       </c>
       <c r="N31" t="n">
-        <v>691.1390823091159</v>
+        <v>668.2295241383182</v>
       </c>
       <c r="O31" t="n">
-        <v>758.2961841020074</v>
+        <v>876.149306505936</v>
       </c>
       <c r="P31" t="n">
-        <v>933.3008856140973</v>
+        <v>910.3913274432996</v>
       </c>
       <c r="Q31" t="n">
-        <v>933.3008856140973</v>
+        <v>933.3008856140964</v>
       </c>
       <c r="R31" t="n">
-        <v>912.4686407253713</v>
+        <v>912.4686407253705</v>
       </c>
       <c r="S31" t="n">
-        <v>835.6290692489687</v>
+        <v>835.6290692489679</v>
       </c>
       <c r="T31" t="n">
-        <v>749.6267403989724</v>
+        <v>749.6267403989716</v>
       </c>
       <c r="U31" t="n">
-        <v>604.318753864088</v>
+        <v>604.3187538640873</v>
       </c>
       <c r="V31" t="n">
-        <v>492.448223324813</v>
+        <v>492.4482233248123</v>
       </c>
       <c r="W31" t="n">
-        <v>347.0865555931376</v>
+        <v>347.0865555931369</v>
       </c>
       <c r="X31" t="n">
-        <v>262.2826827656099</v>
+        <v>262.2826827656094</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.9451594982247</v>
+        <v>184.9451594982243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1509.247830482864</v>
+        <v>1509.247830482865</v>
       </c>
       <c r="C32" t="n">
         <v>1284.082677466501</v>
@@ -6683,25 +6683,25 @@
         <v>1069.402739525232</v>
       </c>
       <c r="E32" t="n">
-        <v>827.9416874418537</v>
+        <v>827.9416874418534</v>
       </c>
       <c r="F32" t="n">
-        <v>562.0606073531685</v>
+        <v>562.0606073531682</v>
       </c>
       <c r="G32" t="n">
-        <v>289.0722501897268</v>
+        <v>289.0722501897272</v>
       </c>
       <c r="H32" t="n">
         <v>98.4674525109933</v>
       </c>
       <c r="I32" t="n">
-        <v>57.12976694731629</v>
+        <v>57.12976694731631</v>
       </c>
       <c r="J32" t="n">
         <v>243.1956848537439</v>
       </c>
       <c r="K32" t="n">
-        <v>573.2010209074266</v>
+        <v>573.2010209074267</v>
       </c>
       <c r="L32" t="n">
         <v>1000.255560968788</v>
@@ -6713,13 +6713,13 @@
         <v>1893.338324347553</v>
       </c>
       <c r="O32" t="n">
-        <v>2293.460360192378</v>
+        <v>2293.460360192379</v>
       </c>
       <c r="P32" t="n">
         <v>2618.915191013203</v>
       </c>
       <c r="Q32" t="n">
-        <v>2821.659842129962</v>
+        <v>2821.659842129963</v>
       </c>
       <c r="R32" t="n">
         <v>2856.488347365815</v>
@@ -6737,13 +6737,13 @@
         <v>2434.004215435779</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.460253003645</v>
+        <v>2225.460253003646</v>
       </c>
       <c r="X32" t="n">
-        <v>1996.379439934527</v>
+        <v>1996.379439934528</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.313300986554</v>
+        <v>1751.313300986555</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>635.5070365883722</v>
+        <v>635.5070365883723</v>
       </c>
       <c r="C33" t="n">
-        <v>608.2807843311414</v>
+        <v>462.7539215101895</v>
       </c>
       <c r="D33" t="n">
-        <v>460.6924776900853</v>
+        <v>315.1656148691334</v>
       </c>
       <c r="E33" t="n">
         <v>303.08294869294</v>
@@ -6771,13 +6771,13 @@
         <v>165.9693403809813</v>
       </c>
       <c r="H33" t="n">
-        <v>57.12976694731629</v>
+        <v>57.12976694731631</v>
       </c>
       <c r="I33" t="n">
-        <v>57.12976694731629</v>
+        <v>57.12976694731631</v>
       </c>
       <c r="J33" t="n">
-        <v>90.78142418826988</v>
+        <v>90.78142418826991</v>
       </c>
       <c r="K33" t="n">
         <v>274.9030796024467</v>
@@ -6804,13 +6804,13 @@
         <v>2137.386909755989</v>
       </c>
       <c r="S33" t="n">
-        <v>1982.194974520584</v>
+        <v>2117.512733053344</v>
       </c>
       <c r="T33" t="n">
-        <v>1782.951579717489</v>
+        <v>1928.478442538441</v>
       </c>
       <c r="U33" t="n">
-        <v>1556.043794400819</v>
+        <v>1701.570657221771</v>
       </c>
       <c r="V33" t="n">
         <v>1467.319413747372</v>
@@ -6822,7 +6822,7 @@
         <v>1008.278023486282</v>
       </c>
       <c r="Y33" t="n">
-        <v>802.5495877099327</v>
+        <v>802.5495877099328</v>
       </c>
     </row>
     <row r="34">
@@ -6835,7 +6835,7 @@
         <v>132.7367573132908</v>
       </c>
       <c r="C34" t="n">
-        <v>109.2367989916141</v>
+        <v>109.2367989916142</v>
       </c>
       <c r="D34" t="n">
         <v>104.2529885655768</v>
@@ -6844,37 +6844,37 @@
         <v>101.320635049964</v>
       </c>
       <c r="F34" t="n">
-        <v>99.21212270949721</v>
+        <v>99.21212270949722</v>
       </c>
       <c r="G34" t="n">
-        <v>75.39128084210658</v>
+        <v>75.3912808421066</v>
       </c>
       <c r="H34" t="n">
-        <v>59.76511721051296</v>
+        <v>59.76511721051298</v>
       </c>
       <c r="I34" t="n">
-        <v>57.12976694731629</v>
+        <v>57.12976694731631</v>
       </c>
       <c r="J34" t="n">
         <v>128.2838313960337</v>
       </c>
       <c r="K34" t="n">
-        <v>268.2979924130668</v>
+        <v>140.7284211957771</v>
       </c>
       <c r="L34" t="n">
-        <v>340.0263979708653</v>
+        <v>212.4568267535756</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2468441893642</v>
+        <v>298.6772729720744</v>
       </c>
       <c r="N34" t="n">
-        <v>515.5584228038006</v>
+        <v>432.3794219623687</v>
       </c>
       <c r="O34" t="n">
-        <v>725.3464028475071</v>
+        <v>642.1674020060752</v>
       </c>
       <c r="P34" t="n">
-        <v>902.2193020356857</v>
+        <v>819.0403011942539</v>
       </c>
       <c r="Q34" t="n">
         <v>902.2193020356857</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.2901596368008</v>
+        <v>981.2901596368006</v>
       </c>
       <c r="C35" t="n">
-        <v>833.4953694237443</v>
+        <v>833.495369423744</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1857942857829</v>
+        <v>696.1857942857825</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0951050057113</v>
+        <v>532.0951050057109</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5843877203332</v>
+        <v>343.5843877203329</v>
       </c>
       <c r="G35" t="n">
         <v>147.9663933601986</v>
@@ -6932,16 +6932,16 @@
         <v>34.73195848477189</v>
       </c>
       <c r="I35" t="n">
-        <v>34.73195848477189</v>
+        <v>67.70915113394972</v>
       </c>
       <c r="J35" t="n">
-        <v>78.16699814038448</v>
+        <v>111.1441907895623</v>
       </c>
       <c r="K35" t="n">
-        <v>265.5414559432522</v>
+        <v>298.5186485924301</v>
       </c>
       <c r="L35" t="n">
-        <v>549.9651177537983</v>
+        <v>582.9423104029761</v>
       </c>
       <c r="M35" t="n">
         <v>914.6307305977784</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>758.6360909467799</v>
+        <v>836.2500143781663</v>
       </c>
       <c r="C36" t="n">
-        <v>585.882975868597</v>
+        <v>663.4968992999834</v>
       </c>
       <c r="D36" t="n">
-        <v>438.2946692275409</v>
+        <v>515.9085926589273</v>
       </c>
       <c r="E36" t="n">
-        <v>280.6851402303956</v>
+        <v>358.299063661782</v>
       </c>
       <c r="F36" t="n">
-        <v>280.6851402303956</v>
+        <v>358.299063661782</v>
       </c>
       <c r="G36" t="n">
-        <v>143.5715319184369</v>
+        <v>221.1854553498233</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73195848477189</v>
+        <v>112.3458819161583</v>
       </c>
       <c r="I36" t="n">
         <v>34.73195848477189</v>
@@ -7017,49 +7017,49 @@
         <v>68.38361572572549</v>
       </c>
       <c r="K36" t="n">
-        <v>68.38361572572549</v>
+        <v>252.5052711399023</v>
       </c>
       <c r="L36" t="n">
-        <v>376.8075104168507</v>
+        <v>560.9291658310276</v>
       </c>
       <c r="M36" t="n">
-        <v>789.5238421808215</v>
+        <v>973.6454975949983</v>
       </c>
       <c r="N36" t="n">
-        <v>1219.331828429874</v>
+        <v>1403.45348384405</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.299135568536</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.942159385352</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="Q36" t="n">
         <v>1736.597924238595</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.552874644423</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="S36" t="n">
-        <v>1658.552874644423</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="T36" t="n">
-        <v>1658.552874644423</v>
+        <v>1700.595758927626</v>
       </c>
       <c r="U36" t="n">
-        <v>1654.542314952012</v>
+        <v>1473.687973610956</v>
       </c>
       <c r="V36" t="n">
-        <v>1420.291071477612</v>
+        <v>1462.333955760816</v>
       </c>
       <c r="W36" t="n">
-        <v>1167.776579810946</v>
+        <v>1209.819464094149</v>
       </c>
       <c r="X36" t="n">
-        <v>964.3645267231294</v>
+        <v>1003.292565499727</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.6360909467799</v>
+        <v>1003.292565499727</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7129,13 @@
         <v>323.078770939734</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3445141248644</v>
+        <v>290.4847328600142</v>
       </c>
       <c r="W37" t="n">
-        <v>40.25933885274428</v>
+        <v>224.3995575878941</v>
       </c>
       <c r="X37" t="n">
-        <v>34.73195848477189</v>
+        <v>218.8721772199217</v>
       </c>
       <c r="Y37" t="n">
         <v>34.73195848477189</v>
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.290159636801</v>
+        <v>981.2901596368006</v>
       </c>
       <c r="C38" t="n">
-        <v>833.4953694237445</v>
+        <v>833.495369423744</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1857942857831</v>
+        <v>696.1857942857825</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0951050057115</v>
+        <v>532.0951050057109</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5843877203335</v>
+        <v>343.5843877203329</v>
       </c>
       <c r="G38" t="n">
         <v>147.9663933601986</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73195848477192</v>
+        <v>41.21690097653914</v>
       </c>
       <c r="J38" t="n">
-        <v>78.16699814038449</v>
+        <v>84.65194063215174</v>
       </c>
       <c r="K38" t="n">
-        <v>265.5414559432522</v>
+        <v>272.0263984350195</v>
       </c>
       <c r="L38" t="n">
-        <v>549.9651177537983</v>
+        <v>556.4500602455655</v>
       </c>
       <c r="M38" t="n">
-        <v>881.6535379486006</v>
+        <v>888.1384804403679</v>
       </c>
       <c r="N38" t="n">
-        <v>1203.191848559452</v>
+        <v>1209.676791051219</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.683006153463</v>
+        <v>1467.16794864523</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.484151372651</v>
+        <v>1649.99190121524</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.597924238596</v>
+        <v>1710.105674081184</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.597924238596</v>
+        <v>1710.105674081184</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.597924238596</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.597924238596</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="U38" t="n">
         <v>1705.519606663863</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>500.029170187394</v>
+        <v>657.6386991845393</v>
       </c>
       <c r="C39" t="n">
-        <v>327.2760551092112</v>
+        <v>484.8855841063565</v>
       </c>
       <c r="D39" t="n">
-        <v>179.6877484681551</v>
+        <v>337.2972774653003</v>
       </c>
       <c r="E39" t="n">
-        <v>179.6877484681551</v>
+        <v>179.687748468155</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="K39" t="n">
-        <v>34.73195848477192</v>
+        <v>218.8536138989487</v>
       </c>
       <c r="L39" t="n">
-        <v>343.1558531758971</v>
+        <v>527.2775085900739</v>
       </c>
       <c r="M39" t="n">
-        <v>755.8721849398678</v>
+        <v>939.9938403540447</v>
       </c>
       <c r="N39" t="n">
-        <v>1185.68017118892</v>
+        <v>1034.29275753357</v>
       </c>
       <c r="O39" t="n">
-        <v>1484.954900421779</v>
+        <v>1368.299135568536</v>
       </c>
       <c r="P39" t="n">
-        <v>1736.597924238596</v>
+        <v>1619.942159385353</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.597924238596</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.597924238596</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="S39" t="n">
-        <v>1736.597924238596</v>
+        <v>1736.597924238595</v>
       </c>
       <c r="T39" t="n">
-        <v>1537.354529435501</v>
+        <v>1727.712879510349</v>
       </c>
       <c r="U39" t="n">
-        <v>1310.44674411883</v>
+        <v>1723.702319817938</v>
       </c>
       <c r="V39" t="n">
-        <v>1076.195500644431</v>
+        <v>1489.451076343539</v>
       </c>
       <c r="W39" t="n">
-        <v>1046.578234602024</v>
+        <v>1236.936584676872</v>
       </c>
       <c r="X39" t="n">
-        <v>872.800157085304</v>
+        <v>1030.409686082449</v>
       </c>
       <c r="Y39" t="n">
-        <v>667.0717213089545</v>
+        <v>824.6812503060997</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>218.8721772199217</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="C40" t="n">
-        <v>49.8453560772931</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="D40" t="n">
-        <v>49.8453560772931</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="E40" t="n">
-        <v>49.8453560772931</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="F40" t="n">
-        <v>49.8453560772931</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="G40" t="n">
-        <v>49.8453560772931</v>
+        <v>107.6600411315401</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73195848477192</v>
+        <v>107.6600411315401</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73195848477192</v>
+        <v>107.6600411315401</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73195848477192</v>
+        <v>34.7319584847719</v>
       </c>
       <c r="K40" t="n">
-        <v>47.17654828451523</v>
+        <v>47.17654828451522</v>
       </c>
       <c r="L40" t="n">
         <v>118.9049538423138</v>
@@ -7351,31 +7351,31 @@
         <v>395.8361014055042</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.8361014055042</v>
+        <v>335.1771100685149</v>
       </c>
       <c r="R40" t="n">
-        <v>395.8361014055042</v>
+        <v>335.1771100685149</v>
       </c>
       <c r="S40" t="n">
-        <v>395.8361014055042</v>
+        <v>335.1771100685149</v>
       </c>
       <c r="T40" t="n">
-        <v>389.1102650150631</v>
+        <v>328.4512736780738</v>
       </c>
       <c r="U40" t="n">
-        <v>323.078770939734</v>
+        <v>262.4197796027447</v>
       </c>
       <c r="V40" t="n">
-        <v>290.4847328600142</v>
+        <v>229.825741523025</v>
       </c>
       <c r="W40" t="n">
-        <v>224.3995575878941</v>
+        <v>163.7405662509048</v>
       </c>
       <c r="X40" t="n">
-        <v>218.8721772199217</v>
+        <v>158.2131858829324</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.8721772199217</v>
+        <v>158.2131858829324</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1150.64232483288</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8173844745208</v>
+        <v>975.8173844745207</v>
       </c>
       <c r="D41" t="n">
-        <v>811.4776591912571</v>
+        <v>811.4776591912569</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3568197658831</v>
+        <v>620.3568197658828</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8159523352026</v>
+        <v>404.8159523352024</v>
       </c>
       <c r="G41" t="n">
         <v>182.167807829765</v>
@@ -7406,31 +7406,31 @@
         <v>41.90322280903582</v>
       </c>
       <c r="I41" t="n">
-        <v>50.72659961418648</v>
+        <v>50.72659961418651</v>
       </c>
       <c r="J41" t="n">
-        <v>94.16163926979905</v>
+        <v>94.16163926979911</v>
       </c>
       <c r="K41" t="n">
-        <v>473.5054177495923</v>
+        <v>281.5360970726668</v>
       </c>
       <c r="L41" t="n">
-        <v>757.9290795601383</v>
+        <v>565.9597588832129</v>
       </c>
       <c r="M41" t="n">
-        <v>1089.617499754941</v>
+        <v>897.6481790780152</v>
       </c>
       <c r="N41" t="n">
-        <v>1411.155810365792</v>
+        <v>1219.186489688867</v>
       </c>
       <c r="O41" t="n">
-        <v>1668.646967959803</v>
+        <v>1476.677647282877</v>
       </c>
       <c r="P41" t="n">
-        <v>1851.470920529812</v>
+        <v>1758.911099246958</v>
       </c>
       <c r="Q41" t="n">
-        <v>2095.161140451791</v>
+        <v>2010.994192789828</v>
       </c>
       <c r="R41" t="n">
         <v>2095.161140451791</v>
@@ -7442,7 +7442,7 @@
         <v>2068.130990306489</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.022522586454</v>
+        <v>2010.022522586453</v>
       </c>
       <c r="V41" t="n">
         <v>1874.037859153775</v>
@@ -7454,7 +7454,7 @@
         <v>1537.093508968533</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.367582678565</v>
+        <v>1342.367582678564</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>830.7675396886682</v>
+        <v>678.5103452956719</v>
       </c>
       <c r="C42" t="n">
-        <v>658.0144246104853</v>
+        <v>678.5103452956719</v>
       </c>
       <c r="D42" t="n">
-        <v>510.4261179694291</v>
+        <v>530.9220386546157</v>
       </c>
       <c r="E42" t="n">
-        <v>510.4261179694291</v>
+        <v>373.3125096574704</v>
       </c>
       <c r="F42" t="n">
-        <v>365.470327986046</v>
+        <v>228.3567196740873</v>
       </c>
       <c r="G42" t="n">
         <v>228.3567196740873</v>
@@ -7488,19 +7488,19 @@
         <v>41.90322280903582</v>
       </c>
       <c r="J42" t="n">
-        <v>75.55488004998941</v>
+        <v>48.55565488407169</v>
       </c>
       <c r="K42" t="n">
-        <v>259.6765354641662</v>
+        <v>232.6773102982485</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1004301552914</v>
+        <v>541.1012049893737</v>
       </c>
       <c r="M42" t="n">
-        <v>980.8167619192621</v>
+        <v>953.8175367533445</v>
       </c>
       <c r="N42" t="n">
-        <v>1419.855198912684</v>
+        <v>1392.855973746766</v>
       </c>
       <c r="O42" t="n">
         <v>1726.862351781732</v>
@@ -7518,22 +7518,22 @@
         <v>2095.161140451791</v>
       </c>
       <c r="T42" t="n">
-        <v>1895.917745648696</v>
+        <v>1971.481751245741</v>
       </c>
       <c r="U42" t="n">
-        <v>1669.009960332026</v>
+        <v>1744.57396592907</v>
       </c>
       <c r="V42" t="n">
-        <v>1630.625792336584</v>
+        <v>1510.322722454671</v>
       </c>
       <c r="W42" t="n">
-        <v>1378.111300669917</v>
+        <v>1257.808230788004</v>
       </c>
       <c r="X42" t="n">
-        <v>1171.584402075494</v>
+        <v>1051.281332193582</v>
       </c>
       <c r="Y42" t="n">
-        <v>997.8100908102286</v>
+        <v>845.5528964172323</v>
       </c>
     </row>
     <row r="43">
@@ -7564,52 +7564,52 @@
         <v>41.90322280903582</v>
       </c>
       <c r="I43" t="n">
-        <v>41.90322280903582</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="J43" t="n">
-        <v>41.90322280903582</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="K43" t="n">
-        <v>54.34781260877914</v>
+        <v>55.04275471542378</v>
       </c>
       <c r="L43" t="n">
-        <v>126.7711602732225</v>
+        <v>126.7711602732224</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9916064917213</v>
+        <v>212.9916064917212</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3031851061577</v>
+        <v>302.3031851061576</v>
       </c>
       <c r="O43" t="n">
-        <v>369.4602868990492</v>
+        <v>369.460286899049</v>
       </c>
       <c r="P43" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="R43" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="S43" t="n">
-        <v>379.109078674263</v>
+        <v>379.1090786742628</v>
       </c>
       <c r="T43" t="n">
-        <v>345.3530921385195</v>
+        <v>345.3530921385194</v>
       </c>
       <c r="U43" t="n">
-        <v>252.2914479178879</v>
+        <v>252.2914479178878</v>
       </c>
       <c r="V43" t="n">
-        <v>192.6672596928657</v>
+        <v>192.6672596928656</v>
       </c>
       <c r="W43" t="n">
-        <v>99.55193427544307</v>
+        <v>99.55193427544302</v>
       </c>
       <c r="X43" t="n">
-        <v>66.99440376216822</v>
+        <v>66.99440376216819</v>
       </c>
       <c r="Y43" t="n">
         <v>41.90322280903582</v>
@@ -7631,7 +7631,7 @@
         <v>811.4776591912564</v>
       </c>
       <c r="E44" t="n">
-        <v>620.3568197658824</v>
+        <v>620.3568197658823</v>
       </c>
       <c r="F44" t="n">
         <v>404.8159523352018</v>
@@ -7643,31 +7643,31 @@
         <v>41.90322280903582</v>
       </c>
       <c r="I44" t="n">
-        <v>41.90322280903582</v>
+        <v>50.72659961418651</v>
       </c>
       <c r="J44" t="n">
-        <v>85.33826246464841</v>
+        <v>94.16163926979911</v>
       </c>
       <c r="K44" t="n">
-        <v>278.2485820616851</v>
+        <v>380.9455964667382</v>
       </c>
       <c r="L44" t="n">
-        <v>562.6722438722311</v>
+        <v>665.3692582772842</v>
       </c>
       <c r="M44" t="n">
-        <v>1081.224626134049</v>
+        <v>997.0576784720865</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.762936744901</v>
+        <v>1318.595989082938</v>
       </c>
       <c r="O44" t="n">
-        <v>1660.254094338912</v>
+        <v>1576.087146676949</v>
       </c>
       <c r="P44" t="n">
-        <v>2035.047367585847</v>
+        <v>1758.911099246958</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.161140451791</v>
+        <v>2010.994192789828</v>
       </c>
       <c r="R44" t="n">
         <v>2095.161140451791</v>
@@ -7676,10 +7676,10 @@
         <v>2095.161140451791</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.130990306488</v>
+        <v>2068.130990306489</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.022522586453</v>
+        <v>2010.022522586454</v>
       </c>
       <c r="V44" t="n">
         <v>1874.037859153774</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>765.8073552710439</v>
+        <v>664.8099635088032</v>
       </c>
       <c r="C45" t="n">
-        <v>593.054240192861</v>
+        <v>492.0568484306204</v>
       </c>
       <c r="D45" t="n">
-        <v>445.4659335518048</v>
+        <v>344.4685417895643</v>
       </c>
       <c r="E45" t="n">
-        <v>287.8564045546595</v>
+        <v>186.859012792419</v>
       </c>
       <c r="F45" t="n">
-        <v>287.8564045546595</v>
+        <v>41.90322280903582</v>
       </c>
       <c r="G45" t="n">
-        <v>150.7427962427008</v>
+        <v>41.90322280903582</v>
       </c>
       <c r="H45" t="n">
         <v>41.90322280903582</v>
@@ -7725,7 +7725,7 @@
         <v>41.90322280903582</v>
       </c>
       <c r="J45" t="n">
-        <v>75.55488004998941</v>
+        <v>75.55488004998942</v>
       </c>
       <c r="K45" t="n">
         <v>259.6765354641662</v>
@@ -7734,7 +7734,7 @@
         <v>568.1004301552914</v>
       </c>
       <c r="M45" t="n">
-        <v>953.8175367533445</v>
+        <v>980.8167619192621</v>
       </c>
       <c r="N45" t="n">
         <v>1392.855973746766</v>
@@ -7752,25 +7752,25 @@
         <v>2017.116090857619</v>
       </c>
       <c r="S45" t="n">
-        <v>1851.715051334022</v>
+        <v>2017.116090857619</v>
       </c>
       <c r="T45" t="n">
-        <v>1848.338732009884</v>
+        <v>1957.781369458872</v>
       </c>
       <c r="U45" t="n">
-        <v>1621.430946693213</v>
+        <v>1730.873584142201</v>
       </c>
       <c r="V45" t="n">
-        <v>1387.179703218814</v>
+        <v>1496.622340667802</v>
       </c>
       <c r="W45" t="n">
-        <v>1134.665211552147</v>
+        <v>1244.107849001135</v>
       </c>
       <c r="X45" t="n">
-        <v>971.5357910473934</v>
+        <v>1037.580950406713</v>
       </c>
       <c r="Y45" t="n">
-        <v>765.8073552710439</v>
+        <v>831.8525146303637</v>
       </c>
     </row>
     <row r="46">
@@ -7792,61 +7792,61 @@
         <v>41.90322280903582</v>
       </c>
       <c r="F46" t="n">
-        <v>42.5981649156806</v>
+        <v>41.90322280903582</v>
       </c>
       <c r="G46" t="n">
-        <v>42.5981649156806</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="H46" t="n">
-        <v>42.5981649156806</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="I46" t="n">
-        <v>42.5981649156806</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="J46" t="n">
-        <v>42.5981649156806</v>
+        <v>42.59816491568046</v>
       </c>
       <c r="K46" t="n">
-        <v>55.04275471542391</v>
+        <v>55.04275471542378</v>
       </c>
       <c r="L46" t="n">
-        <v>126.7711602732225</v>
+        <v>126.7711602732224</v>
       </c>
       <c r="M46" t="n">
-        <v>212.9916064917213</v>
+        <v>212.9916064917212</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3031851061577</v>
+        <v>302.3031851061576</v>
       </c>
       <c r="O46" t="n">
-        <v>369.4602868990492</v>
+        <v>369.460286899049</v>
       </c>
       <c r="P46" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="R46" t="n">
-        <v>403.7023078364128</v>
+        <v>403.7023078364127</v>
       </c>
       <c r="S46" t="n">
-        <v>379.109078674263</v>
+        <v>379.1090786742628</v>
       </c>
       <c r="T46" t="n">
-        <v>345.3530921385195</v>
+        <v>345.3530921385194</v>
       </c>
       <c r="U46" t="n">
-        <v>252.2914479178879</v>
+        <v>252.2914479178878</v>
       </c>
       <c r="V46" t="n">
-        <v>192.6672596928657</v>
+        <v>192.6672596928656</v>
       </c>
       <c r="W46" t="n">
-        <v>99.55193427544307</v>
+        <v>99.55193427544302</v>
       </c>
       <c r="X46" t="n">
-        <v>66.99440376216822</v>
+        <v>66.99440376216819</v>
       </c>
       <c r="Y46" t="n">
         <v>41.90322280903582</v>
@@ -8456,22 +8456,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>237.1661180762784</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>231.8814408771318</v>
+        <v>227.5271966636498</v>
       </c>
       <c r="N8" t="n">
-        <v>230.6768989324477</v>
+        <v>230.971600487217</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>231.6396196166854</v>
       </c>
       <c r="P8" t="n">
         <v>232.7460343419286</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8532,22 +8532,22 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>141.6892664805409</v>
+        <v>141.3945649257715</v>
       </c>
       <c r="L9" t="n">
-        <v>142.3843837659182</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>145.8745465545087</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>135.0573312070215</v>
+        <v>135.3520327617908</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>146.3252018138741</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>137.9189107095128</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8769,7 +8769,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>89.06237637775168</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>82.99246355565116</v>
+        <v>480.7798325515221</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>315.6450190796236</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6462733329172</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,13 +9003,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.14310378336499</v>
+        <v>97.14310378336501</v>
       </c>
       <c r="K15" t="n">
-        <v>89.06237637775166</v>
+        <v>89.06237637775168</v>
       </c>
       <c r="L15" t="n">
-        <v>207.8596332057169</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9021,10 +9021,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>271.2210593880198</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6462733329172</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,19 +9240,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.14310378336499</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.06237637775166</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>207.8596332057169</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.7798325515221</v>
+        <v>82.99246355565055</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9419,7 +9419,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863004</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,7 +9480,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>89.06237637775166</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9489,7 +9489,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>268.9739336709812</v>
+        <v>200.8265694680163</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6462733329172</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9726,16 +9726,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>93.09671686390047</v>
+        <v>483.3316720349831</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>391.4008353313212</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>77.01640684329553</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6462733329172</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10665,7 +10665,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.06237637775163</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10677,13 +10677,13 @@
         <v>489.1923816967205</v>
       </c>
       <c r="O36" t="n">
-        <v>222.7086596272894</v>
+        <v>408.7461679665644</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>77.01640684329553</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6462733329172</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10902,7 +10902,7 @@
         <v>97.14310378336498</v>
       </c>
       <c r="K39" t="n">
-        <v>89.06237637775163</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,16 +10911,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.1923816967208</v>
+        <v>150.2943321315419</v>
       </c>
       <c r="O39" t="n">
-        <v>374.5343385103164</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.6462733329172</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>103.8627321419871</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11151,7 +11151,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>382.3448674357608</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11382,10 +11382,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>457.0613216879619</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>471.2441247052576</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.4927241407019</v>
+        <v>261.4927241407018</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.3810469039052</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>57.20942518068767</v>
+        <v>260.8943499045942</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0701776298476</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5466580439958</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3095356718262</v>
+        <v>162.4821382659727</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3064311498614</v>
+        <v>228.3064311498613</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6379132804762</v>
+        <v>248.6379132804761</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.4927241407019</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.7614098282494</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3810469039052</v>
+        <v>230.4776265408075</v>
       </c>
       <c r="E14" t="n">
         <v>260.8943499045943</v>
       </c>
       <c r="F14" t="n">
-        <v>58.25047152809172</v>
+        <v>285.0701776298476</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1063819338565</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5466580439958</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.77221705008949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.44456751732341</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2121019163088</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4633859005426</v>
       </c>
     </row>
     <row r="15">
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.903178667416046</v>
       </c>
       <c r="V17" t="n">
-        <v>9.903178667415844</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.903178667416086</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.90317866741635</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.117346298291523e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901835.5765337179</v>
+        <v>901835.576533718</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901835.576533718</v>
+        <v>901835.5765337179</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>507597.7360973376</v>
       </c>
       <c r="C2" t="n">
-        <v>507597.7360973379</v>
+        <v>507597.7360973377</v>
       </c>
       <c r="D2" t="n">
-        <v>508323.4755136515</v>
+        <v>508323.4755136516</v>
       </c>
       <c r="E2" t="n">
+        <v>436717.1645993552</v>
+      </c>
+      <c r="F2" t="n">
         <v>436717.164599355</v>
       </c>
-      <c r="F2" t="n">
-        <v>436717.1645993553</v>
-      </c>
       <c r="G2" t="n">
-        <v>508206.9472456313</v>
+        <v>508206.9472456314</v>
       </c>
       <c r="H2" t="n">
-        <v>508206.9472456315</v>
+        <v>508206.9472456314</v>
       </c>
       <c r="I2" t="n">
-        <v>508699.6303843357</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="J2" t="n">
+        <v>508699.6303843353</v>
+      </c>
+      <c r="K2" t="n">
         <v>508699.6303843352</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508699.6303843353</v>
       </c>
       <c r="L2" t="n">
         <v>508699.6303843354</v>
       </c>
       <c r="M2" t="n">
-        <v>508699.6303843356</v>
+        <v>508699.6303843355</v>
       </c>
       <c r="N2" t="n">
-        <v>508699.6303843357</v>
+        <v>508699.6303843358</v>
       </c>
       <c r="O2" t="n">
-        <v>508699.6303843353</v>
+        <v>508699.6303843351</v>
       </c>
       <c r="P2" t="n">
-        <v>508699.630384335</v>
+        <v>508699.6303843352</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80271.93681754345</v>
+        <v>80271.93681754344</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>678.5877072814275</v>
+        <v>678.5877072814577</v>
       </c>
       <c r="J3" t="n">
-        <v>110170.6514513149</v>
+        <v>110170.651451315</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81781.59150529189</v>
+        <v>81781.59150529183</v>
       </c>
       <c r="M3" t="n">
-        <v>95784.72051497435</v>
+        <v>95784.72051497432</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33639.95407005293</v>
+        <v>33639.95407005304</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,10 +26436,10 @@
         <v>333822.7925129618</v>
       </c>
       <c r="I4" t="n">
-        <v>334183.2832277266</v>
+        <v>334183.2832277267</v>
       </c>
       <c r="J4" t="n">
-        <v>331527.965936495</v>
+        <v>331527.9659364951</v>
       </c>
       <c r="K4" t="n">
         <v>331527.9659364951</v>
@@ -26451,7 +26451,7 @@
         <v>333977.8676182332</v>
       </c>
       <c r="N4" t="n">
-        <v>333977.8676182333</v>
+        <v>333977.8676182332</v>
       </c>
       <c r="O4" t="n">
         <v>330836.208691062</v>
@@ -26482,10 +26482,10 @@
         <v>39005.33252113803</v>
       </c>
       <c r="G5" t="n">
-        <v>47440.80934153061</v>
+        <v>47440.8093415306</v>
       </c>
       <c r="H5" t="n">
-        <v>47440.80934153061</v>
+        <v>47440.8093415306</v>
       </c>
       <c r="I5" t="n">
         <v>47595.96118212503</v>
@@ -26494,10 +26494,10 @@
         <v>58660.70469679406</v>
       </c>
       <c r="K5" t="n">
-        <v>58660.70469679406</v>
+        <v>58660.70469679407</v>
       </c>
       <c r="L5" t="n">
-        <v>58375.88174710757</v>
+        <v>58375.88174710758</v>
       </c>
       <c r="M5" t="n">
         <v>47792.95185577996</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62569.4397856941</v>
+        <v>62565.03220854611</v>
       </c>
       <c r="C6" t="n">
-        <v>62569.43978569433</v>
+        <v>62565.03220854617</v>
       </c>
       <c r="D6" t="n">
-        <v>60905.33535302131</v>
+        <v>60903.83073353863</v>
       </c>
       <c r="E6" t="n">
-        <v>-198661.2934514496</v>
+        <v>-198949.2233145894</v>
       </c>
       <c r="F6" t="n">
-        <v>128914.5305200443</v>
+        <v>128626.6006569041</v>
       </c>
       <c r="G6" t="n">
-        <v>46671.40857359546</v>
+        <v>46669.43784104082</v>
       </c>
       <c r="H6" t="n">
-        <v>126943.3453911392</v>
+        <v>126941.3746585842</v>
       </c>
       <c r="I6" t="n">
-        <v>126241.7982672026</v>
+        <v>126241.7982672022</v>
       </c>
       <c r="J6" t="n">
-        <v>8340.308299731216</v>
+        <v>8340.308299731092</v>
       </c>
       <c r="K6" t="n">
         <v>118510.9597510461</v>
       </c>
       <c r="L6" t="n">
-        <v>37053.25788468894</v>
+        <v>37053.25788468893</v>
       </c>
       <c r="M6" t="n">
-        <v>31144.09039534804</v>
+        <v>31144.09039534799</v>
       </c>
       <c r="N6" t="n">
-        <v>126928.8109103225</v>
+        <v>126928.8109103226</v>
       </c>
       <c r="O6" t="n">
-        <v>93230.02859663957</v>
+        <v>93230.02859663923</v>
       </c>
       <c r="P6" t="n">
-        <v>126869.9826666922</v>
+        <v>126869.9826666925</v>
       </c>
     </row>
   </sheetData>
@@ -26750,10 +26750,10 @@
         <v>130.5185327962171</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5185327962171</v>
+        <v>130.5185327962172</v>
       </c>
       <c r="H3" t="n">
-        <v>130.5185327962171</v>
+        <v>130.5185327962172</v>
       </c>
       <c r="I3" t="n">
         <v>130.5185327962172</v>
@@ -26802,28 +26802,28 @@
         <v>425.7369319144502</v>
       </c>
       <c r="G4" t="n">
-        <v>425.7369319144502</v>
+        <v>425.7369319144501</v>
       </c>
       <c r="H4" t="n">
-        <v>425.7369319144502</v>
+        <v>425.7369319144501</v>
       </c>
       <c r="I4" t="n">
         <v>428.2887713979112</v>
       </c>
       <c r="J4" t="n">
-        <v>721.4159503219945</v>
+        <v>721.4159503219946</v>
       </c>
       <c r="K4" t="n">
-        <v>721.4159503219945</v>
+        <v>721.4159503219946</v>
       </c>
       <c r="L4" t="n">
-        <v>714.1220868414537</v>
+        <v>714.1220868414538</v>
       </c>
       <c r="M4" t="n">
         <v>434.1494810596487</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1494810596489</v>
+        <v>434.1494810596488</v>
       </c>
       <c r="O4" t="n">
         <v>523.7902851129478</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.84460481112757</v>
+        <v>41.84460481112764</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.2269893816149</v>
+        <v>102.2269893816148</v>
       </c>
       <c r="M2" t="n">
         <v>76.59665917527417</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.08475616727813</v>
+        <v>15.08475616727823</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="E4" t="n">
-        <v>418.4430684339094</v>
+        <v>418.4430684339093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.551839483460981</v>
+        <v>2.551839483461094</v>
       </c>
       <c r="J4" t="n">
-        <v>293.1271789240833</v>
+        <v>293.1271789240834</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.4704626521044</v>
+        <v>138.4704626521042</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.64080405329889</v>
+        <v>89.64080405329901</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.84460481112757</v>
+        <v>41.84460481112764</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M4" t="n">
-        <v>418.4430684339094</v>
+        <v>418.4430684339093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>198.7998729144637</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>134.5569592203362</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>200.0997939044413</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>244.1839000960036</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>158.9476906566845</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27938,16 +27938,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>148.739570226633</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>136.2123686030085</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>88.27054480743085</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>161.6677504251035</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
@@ -27989,7 +27989,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>224.6148675591143</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -27998,7 +27998,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>196.3772879380452</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28014,28 +28014,28 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7117030339785</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>139.6807606926583</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>161.4651539764477</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>154.340208528376</v>
+        <v>155.2096370552565</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>81.5449814472381</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>7.480546237292515</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>72.46683639530734</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28169,13 +28169,13 @@
         <v>122.2236858506932</v>
       </c>
       <c r="C12" t="n">
-        <v>85.18242601607506</v>
+        <v>122.2236858506932</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>122.2236858506932</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>122.2236858506932</v>
       </c>
       <c r="F12" t="n">
         <v>122.2236858506932</v>
@@ -28184,10 +28184,10 @@
         <v>122.2236858506932</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7511776993283</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.83778419707257</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.26459909823038</v>
       </c>
       <c r="S12" t="n">
-        <v>122.2236858506932</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>122.2236858506932</v>
+        <v>70.28310296355247</v>
       </c>
       <c r="Y12" t="n">
         <v>122.2236858506932</v>
@@ -28409,22 +28409,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>70.28310296355251</v>
+        <v>122.2236858506932</v>
       </c>
       <c r="E15" t="n">
         <v>122.2236858506932</v>
       </c>
       <c r="F15" t="n">
-        <v>122.2236858506932</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>122.2236858506932</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7511776993283</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.83778419707257</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823038</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.2236858506932</v>
       </c>
       <c r="T15" t="n">
-        <v>122.2236858506932</v>
+        <v>7.917826917844991</v>
       </c>
       <c r="U15" t="n">
         <v>122.2236858506932</v>
       </c>
       <c r="V15" t="n">
-        <v>122.2236858506932</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.83778419707257</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.7470291283616</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2509608550637</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="V18" t="n">
-        <v>36.97210925165137</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>196.9882992879648</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R19" t="n">
         <v>162.8084482728956</v>
@@ -28776,7 +28776,7 @@
         <v>222.5636068726225</v>
       </c>
       <c r="U19" t="n">
-        <v>30.78802280179485</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="V19" t="n">
         <v>222.5636068726225</v>
@@ -28785,7 +28785,7 @@
         <v>222.5636068726225</v>
       </c>
       <c r="X19" t="n">
-        <v>222.5636068726225</v>
+        <v>30.78802280179477</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28883,16 +28883,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>19.29951701249828</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H21" t="n">
         <v>107.7511776993283</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7470291283616</v>
       </c>
       <c r="T21" t="n">
         <v>197.2509608550637</v>
       </c>
       <c r="U21" t="n">
-        <v>222.5636068726225</v>
+        <v>40.84832839115396</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R22" t="n">
         <v>162.8084482728956</v>
@@ -29019,10 +29019,10 @@
         <v>222.5636068726225</v>
       </c>
       <c r="W22" t="n">
-        <v>30.78802280179494</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="X22" t="n">
-        <v>222.5636068726225</v>
+        <v>210.8717142924786</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29056,7 +29056,7 @@
         <v>222.5636068726225</v>
       </c>
       <c r="I23" t="n">
-        <v>184.9959029007827</v>
+        <v>195.1001562090321</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>108.8912858736997</v>
       </c>
       <c r="S23" t="n">
-        <v>204.0126580324167</v>
+        <v>193.9084047241672</v>
       </c>
       <c r="T23" t="n">
         <v>220.6682533680166</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>135.7424722288391</v>
       </c>
       <c r="H24" t="n">
-        <v>32.98975031458095</v>
+        <v>107.7511776993283</v>
       </c>
       <c r="I24" t="n">
         <v>76.83778419707257</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7470291283616</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2509608550637</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>12.05269426970162</v>
       </c>
       <c r="W24" t="n">
-        <v>222.5636068726225</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -29208,13 +29208,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.6542276414592</v>
       </c>
       <c r="H25" t="n">
         <v>159.5414961880201</v>
       </c>
       <c r="I25" t="n">
-        <v>146.6805909533071</v>
+        <v>122.2415598136818</v>
       </c>
       <c r="J25" t="n">
         <v>72.19880182030056</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R25" t="n">
         <v>162.8084482728956</v>
@@ -29253,7 +29253,7 @@
         <v>222.5636068726225</v>
       </c>
       <c r="V25" t="n">
-        <v>198.442250443254</v>
+        <v>222.5636068726225</v>
       </c>
       <c r="W25" t="n">
         <v>222.5636068726225</v>
@@ -29366,10 +29366,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7511776993283</v>
+        <v>92.04064041224642</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S27" t="n">
         <v>142.1845258330569</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>142.1845258330569</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>67.99611541536609</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>142.1845258330569</v>
       </c>
     </row>
     <row r="28">
@@ -29454,7 +29454,7 @@
         <v>142.1845258330569</v>
       </c>
       <c r="J28" t="n">
-        <v>83.19336927291053</v>
+        <v>142.1845258330569</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>142.1845258330569</v>
+        <v>83.1933692729101</v>
       </c>
       <c r="N28" t="n">
         <v>142.1845258330569</v>
@@ -29591,19 +29591,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>142.1845258330569</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
-        <v>135.7424722288391</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.26459909823036</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>142.1845258330569</v>
       </c>
       <c r="T30" t="n">
-        <v>98.48269401646364</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.12071367741973</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>142.1845258330569</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>142.1845258330569</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29694,25 +29694,25 @@
         <v>142.1845258330569</v>
       </c>
       <c r="K31" t="n">
-        <v>23.14096784929081</v>
+        <v>142.1845258330569</v>
       </c>
       <c r="L31" t="n">
         <v>142.1845258330569</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>142.1845258330569</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
-        <v>142.1845258330569</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.05240142361939</v>
+        <v>83.19336927290908</v>
       </c>
       <c r="R31" t="n">
         <v>142.1845258330569</v>
@@ -29782,7 +29782,7 @@
         <v>144.0715941927424</v>
       </c>
       <c r="N32" t="n">
-        <v>98.20722658817783</v>
+        <v>98.20722658817851</v>
       </c>
       <c r="O32" t="n">
         <v>144.0715941927424</v>
@@ -29828,13 +29828,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>144.0715941927424</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S33" t="n">
-        <v>10.10701324531038</v>
+        <v>144.0715941927424</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10.10701324531001</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>144.0715941927424</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>144.0715941927424</v>
       </c>
       <c r="K34" t="n">
-        <v>128.8581527447371</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>44.83895997561405</v>
       </c>
       <c r="O34" t="n">
         <v>144.0715941927424</v>
@@ -29949,7 +29949,7 @@
         <v>144.0715941927424</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.05240142361939</v>
+        <v>144.0715941927424</v>
       </c>
       <c r="R34" t="n">
         <v>144.0715941927424</v>
@@ -30004,7 +30004,7 @@
         <v>220.6682533680166</v>
       </c>
       <c r="I35" t="n">
-        <v>184.9959029007827</v>
+        <v>218.3061985060128</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>33.31029560523018</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.83778419707257</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S36" t="n">
         <v>163.7470291283616</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2509608550637</v>
+        <v>161.608817197205</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>220.6682533680166</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>3.08369705154027</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R37" t="n">
         <v>162.8084482728956</v>
@@ -30201,7 +30201,7 @@
         <v>220.6682533680166</v>
       </c>
       <c r="V37" t="n">
-        <v>38.36943682021828</v>
+        <v>220.6682533680166</v>
       </c>
       <c r="W37" t="n">
         <v>220.6682533680166</v>
@@ -30210,7 +30210,7 @@
         <v>220.6682533680166</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>36.44985731996991</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>220.6682533680166</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9959029007827</v>
+        <v>191.5463498621637</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>33.31029560523112</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>108.8912858736997</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9084047241672</v>
+        <v>220.6682533680166</v>
       </c>
       <c r="T38" t="n">
         <v>220.6682533680166</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S39" t="n">
         <v>163.7470291283616</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>188.4547665741</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>220.6682533680166</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>220.6682533680166</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>32.42133286692578</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30393,16 +30393,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6542276414592</v>
+        <v>117.6066143375808</v>
       </c>
       <c r="H40" t="n">
-        <v>144.5792325714241</v>
+        <v>159.5414961880201</v>
       </c>
       <c r="I40" t="n">
         <v>146.6805909533071</v>
       </c>
       <c r="J40" t="n">
-        <v>72.19880182030056</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.05240142361939</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>162.8084482728956</v>
@@ -30484,28 +30484,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>100.4136357515873</v>
+      </c>
+      <c r="Q41" t="n">
         <v>193.9084047241672</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>185.4307546020548</v>
-      </c>
       <c r="R41" t="n">
-        <v>108.8912858736997</v>
+        <v>193.9084047241672</v>
       </c>
       <c r="S41" t="n">
         <v>193.9084047241672</v>
@@ -30539,19 +30539,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.26459909823036</v>
+        <v>77.26459909823035</v>
       </c>
       <c r="S42" t="n">
         <v>163.7470291283616</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>74.80836554107378</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>193.9084047241672</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.63458326597296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30636,7 +30636,7 @@
         <v>159.5414961880201</v>
       </c>
       <c r="I43" t="n">
-        <v>146.6805909533071</v>
+        <v>147.3825526771906</v>
       </c>
       <c r="J43" t="n">
         <v>72.19880182030056</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7019617238836133</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R43" t="n">
         <v>162.8084482728956</v>
@@ -30715,19 +30715,19 @@
         <v>193.9084047241672</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9959029007827</v>
+        <v>193.9084047241672</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.591779590069592</v>
+        <v>100.4136357515872</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>188.7514768353697</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>193.9084047241672</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>108.8912858736997</v>
+        <v>193.9084047241672</v>
       </c>
       <c r="S44" t="n">
         <v>193.9084047241672</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30785,13 +30785,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7424722288391</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7511776993283</v>
       </c>
       <c r="I45" t="n">
         <v>76.83778419707257</v>
@@ -30824,10 +30824,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7470291283616</v>
       </c>
       <c r="T45" t="n">
-        <v>193.9084047241672</v>
+        <v>138.5095866703038</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>42.96350330877206</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,10 +30864,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.8609831336881</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6542276414592</v>
+        <v>168.3561893653426</v>
       </c>
       <c r="H46" t="n">
         <v>159.5414961880201</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.05240142361939</v>
+        <v>60.05240142361938</v>
       </c>
       <c r="R46" t="n">
         <v>162.8084482728956</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5246976192812745</v>
+        <v>0.5246976192812742</v>
       </c>
       <c r="H11" t="n">
-        <v>5.373559493464354</v>
+        <v>5.373559493464351</v>
       </c>
       <c r="I11" t="n">
-        <v>20.22840496734135</v>
+        <v>20.22840496734134</v>
       </c>
       <c r="J11" t="n">
-        <v>44.53305456447411</v>
+        <v>44.53305456447409</v>
       </c>
       <c r="K11" t="n">
-        <v>66.74350478865047</v>
+        <v>66.74350478865044</v>
       </c>
       <c r="L11" t="n">
-        <v>82.8012195547298</v>
+        <v>82.80121955472976</v>
       </c>
       <c r="M11" t="n">
-        <v>92.13231084162315</v>
+        <v>92.13231084162312</v>
       </c>
       <c r="N11" t="n">
-        <v>93.62310795240609</v>
+        <v>93.62310795240604</v>
       </c>
       <c r="O11" t="n">
-        <v>88.4056460006779</v>
+        <v>88.40564600067786</v>
       </c>
       <c r="P11" t="n">
-        <v>75.45217352467144</v>
+        <v>75.45217352467139</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.66144003416077</v>
+        <v>56.66144003416075</v>
       </c>
       <c r="R11" t="n">
-        <v>32.95953682717739</v>
+        <v>32.95953682717737</v>
       </c>
       <c r="S11" t="n">
         <v>11.95654699937205</v>
       </c>
       <c r="T11" t="n">
-        <v>2.29686382840378</v>
+        <v>2.296863828403779</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04197580954250195</v>
+        <v>0.04197580954250194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.280737976203184</v>
+        <v>0.2807379762031839</v>
       </c>
       <c r="H12" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804434</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6657592683991</v>
+        <v>9.665759268399096</v>
       </c>
       <c r="J12" t="n">
-        <v>26.52358221663503</v>
+        <v>26.52358221663502</v>
       </c>
       <c r="K12" t="n">
-        <v>45.33302662224836</v>
+        <v>45.33302662224834</v>
       </c>
       <c r="L12" t="n">
-        <v>60.95584873657292</v>
+        <v>60.9558487365729</v>
       </c>
       <c r="M12" t="n">
-        <v>71.13260037393833</v>
+        <v>71.1326003739383</v>
       </c>
       <c r="N12" t="n">
-        <v>73.01526864417811</v>
+        <v>73.01526864417808</v>
       </c>
       <c r="O12" t="n">
-        <v>66.79470611883387</v>
+        <v>66.79470611883384</v>
       </c>
       <c r="P12" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567641</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.83595640095381</v>
+        <v>35.83595640095379</v>
       </c>
       <c r="R12" t="n">
-        <v>17.43038066286085</v>
+        <v>17.43038066286084</v>
       </c>
       <c r="S12" t="n">
-        <v>5.214584777282822</v>
+        <v>5.214584777282821</v>
       </c>
       <c r="T12" t="n">
-        <v>1.131571053204939</v>
+        <v>1.131571053204938</v>
       </c>
       <c r="U12" t="n">
         <v>0.0184696036975779</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2353612886489161</v>
+        <v>0.235361288648916</v>
       </c>
       <c r="H13" t="n">
         <v>2.092575820896728</v>
       </c>
       <c r="I13" t="n">
-        <v>7.077955844096498</v>
+        <v>7.077955844096494</v>
       </c>
       <c r="J13" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747836</v>
       </c>
       <c r="K13" t="n">
-        <v>27.34470244484679</v>
+        <v>27.34470244484678</v>
       </c>
       <c r="L13" t="n">
-        <v>34.99180467785795</v>
+        <v>34.99180467785794</v>
       </c>
       <c r="M13" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975689</v>
       </c>
       <c r="N13" t="n">
-        <v>36.01669610752007</v>
+        <v>36.01669610752005</v>
       </c>
       <c r="O13" t="n">
-        <v>33.26724832648499</v>
+        <v>33.26724832648497</v>
       </c>
       <c r="P13" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804707</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.70829845222879</v>
+        <v>19.70829845222878</v>
       </c>
       <c r="R13" t="n">
-        <v>10.58269939688672</v>
+        <v>10.58269939688671</v>
       </c>
       <c r="S13" t="n">
-        <v>4.101705366727018</v>
+        <v>4.101705366727017</v>
       </c>
       <c r="T13" t="n">
-        <v>1.00563459695446</v>
+        <v>1.005634596954459</v>
       </c>
       <c r="U13" t="n">
         <v>0.01283788847175907</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5246976192812745</v>
+        <v>0.5246976192812742</v>
       </c>
       <c r="H14" t="n">
-        <v>5.373559493464354</v>
+        <v>5.373559493464351</v>
       </c>
       <c r="I14" t="n">
-        <v>20.22840496734135</v>
+        <v>20.22840496734134</v>
       </c>
       <c r="J14" t="n">
-        <v>44.53305456447411</v>
+        <v>44.53305456447409</v>
       </c>
       <c r="K14" t="n">
-        <v>66.74350478865047</v>
+        <v>66.74350478865044</v>
       </c>
       <c r="L14" t="n">
-        <v>82.8012195547298</v>
+        <v>82.80121955472976</v>
       </c>
       <c r="M14" t="n">
-        <v>92.13231084162315</v>
+        <v>92.13231084162312</v>
       </c>
       <c r="N14" t="n">
-        <v>93.62310795240609</v>
+        <v>93.62310795240604</v>
       </c>
       <c r="O14" t="n">
-        <v>88.4056460006779</v>
+        <v>88.40564600067786</v>
       </c>
       <c r="P14" t="n">
-        <v>75.45217352467144</v>
+        <v>75.45217352467139</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.66144003416077</v>
+        <v>56.66144003416075</v>
       </c>
       <c r="R14" t="n">
-        <v>32.95953682717739</v>
+        <v>32.95953682717737</v>
       </c>
       <c r="S14" t="n">
         <v>11.95654699937205</v>
       </c>
       <c r="T14" t="n">
-        <v>2.29686382840378</v>
+        <v>2.296863828403779</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04197580954250195</v>
+        <v>0.04197580954250194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.280737976203184</v>
+        <v>0.2807379762031839</v>
       </c>
       <c r="H15" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804434</v>
       </c>
       <c r="I15" t="n">
-        <v>9.6657592683991</v>
+        <v>9.665759268399096</v>
       </c>
       <c r="J15" t="n">
-        <v>26.52358221663503</v>
+        <v>26.52358221663502</v>
       </c>
       <c r="K15" t="n">
-        <v>45.33302662224836</v>
+        <v>45.33302662224834</v>
       </c>
       <c r="L15" t="n">
-        <v>60.95584873657292</v>
+        <v>60.9558487365729</v>
       </c>
       <c r="M15" t="n">
-        <v>71.13260037393833</v>
+        <v>71.1326003739383</v>
       </c>
       <c r="N15" t="n">
-        <v>73.01526864417811</v>
+        <v>73.01526864417808</v>
       </c>
       <c r="O15" t="n">
-        <v>66.79470611883387</v>
+        <v>66.79470611883384</v>
       </c>
       <c r="P15" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567641</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.83595640095381</v>
+        <v>35.83595640095379</v>
       </c>
       <c r="R15" t="n">
-        <v>17.43038066286085</v>
+        <v>17.43038066286084</v>
       </c>
       <c r="S15" t="n">
-        <v>5.214584777282822</v>
+        <v>5.214584777282821</v>
       </c>
       <c r="T15" t="n">
-        <v>1.131571053204939</v>
+        <v>1.131571053204938</v>
       </c>
       <c r="U15" t="n">
         <v>0.0184696036975779</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2353612886489161</v>
+        <v>0.235361288648916</v>
       </c>
       <c r="H16" t="n">
         <v>2.092575820896728</v>
       </c>
       <c r="I16" t="n">
-        <v>7.077955844096498</v>
+        <v>7.077955844096494</v>
       </c>
       <c r="J16" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747836</v>
       </c>
       <c r="K16" t="n">
-        <v>27.34470244484679</v>
+        <v>27.34470244484678</v>
       </c>
       <c r="L16" t="n">
-        <v>34.99180467785795</v>
+        <v>34.99180467785794</v>
       </c>
       <c r="M16" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975689</v>
       </c>
       <c r="N16" t="n">
-        <v>36.01669610752007</v>
+        <v>36.01669610752005</v>
       </c>
       <c r="O16" t="n">
-        <v>33.26724832648499</v>
+        <v>33.26724832648497</v>
       </c>
       <c r="P16" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804707</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.70829845222879</v>
+        <v>19.70829845222878</v>
       </c>
       <c r="R16" t="n">
-        <v>10.58269939688672</v>
+        <v>10.58269939688671</v>
       </c>
       <c r="S16" t="n">
-        <v>4.101705366727018</v>
+        <v>4.101705366727017</v>
       </c>
       <c r="T16" t="n">
-        <v>1.00563459695446</v>
+        <v>1.005634596954459</v>
       </c>
       <c r="U16" t="n">
         <v>0.01283788847175907</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5246976192812745</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H17" t="n">
-        <v>5.373559493464354</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I17" t="n">
-        <v>20.22840496734135</v>
+        <v>20.22840496734136</v>
       </c>
       <c r="J17" t="n">
-        <v>44.53305456447411</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K17" t="n">
-        <v>66.74350478865047</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L17" t="n">
-        <v>82.8012195547298</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M17" t="n">
-        <v>92.13231084162315</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N17" t="n">
-        <v>93.62310795240609</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O17" t="n">
-        <v>88.4056460006779</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P17" t="n">
-        <v>75.45217352467144</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.66144003416077</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R17" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S17" t="n">
-        <v>11.95654699937205</v>
+        <v>11.95654699937206</v>
       </c>
       <c r="T17" t="n">
-        <v>2.29686382840378</v>
+        <v>2.296863828403781</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04197580954250195</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.280737976203184</v>
+        <v>0.2807379762031841</v>
       </c>
       <c r="H18" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6657592683991</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J18" t="n">
-        <v>26.52358221663503</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K18" t="n">
-        <v>45.33302662224836</v>
+        <v>45.33302662224838</v>
       </c>
       <c r="L18" t="n">
-        <v>60.95584873657292</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M18" t="n">
-        <v>71.13260037393833</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N18" t="n">
-        <v>73.01526864417811</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O18" t="n">
-        <v>66.79470611883387</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P18" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.83595640095381</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R18" t="n">
-        <v>17.43038066286085</v>
+        <v>17.43038066286086</v>
       </c>
       <c r="S18" t="n">
-        <v>5.214584777282822</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T18" t="n">
         <v>1.131571053204939</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0184696036975779</v>
+        <v>0.01846960369757791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2353612886489161</v>
+        <v>0.2353612886489162</v>
       </c>
       <c r="H19" t="n">
-        <v>2.092575820896728</v>
+        <v>2.092575820896729</v>
       </c>
       <c r="I19" t="n">
-        <v>7.077955844096498</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J19" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K19" t="n">
-        <v>27.34470244484679</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L19" t="n">
-        <v>34.99180467785795</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M19" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N19" t="n">
-        <v>36.01669610752007</v>
+        <v>36.01669610752008</v>
       </c>
       <c r="O19" t="n">
-        <v>33.26724832648499</v>
+        <v>33.267248326485</v>
       </c>
       <c r="P19" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R19" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S19" t="n">
-        <v>4.101705366727018</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T19" t="n">
         <v>1.00563459695446</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01283788847175907</v>
+        <v>0.01283788847175908</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5246976192812745</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H20" t="n">
-        <v>5.373559493464354</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I20" t="n">
-        <v>20.22840496734135</v>
+        <v>20.22840496734136</v>
       </c>
       <c r="J20" t="n">
-        <v>44.53305456447411</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K20" t="n">
-        <v>66.74350478865047</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L20" t="n">
-        <v>82.8012195547298</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M20" t="n">
-        <v>92.13231084162315</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N20" t="n">
-        <v>93.62310795240609</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O20" t="n">
-        <v>88.4056460006779</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P20" t="n">
-        <v>75.45217352467144</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.66144003416077</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R20" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S20" t="n">
-        <v>11.95654699937205</v>
+        <v>11.95654699937206</v>
       </c>
       <c r="T20" t="n">
-        <v>2.29686382840378</v>
+        <v>2.296863828403781</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04197580954250195</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.280737976203184</v>
+        <v>0.2807379762031841</v>
       </c>
       <c r="H21" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I21" t="n">
-        <v>9.6657592683991</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J21" t="n">
-        <v>26.52358221663503</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K21" t="n">
-        <v>45.33302662224836</v>
+        <v>45.33302662224838</v>
       </c>
       <c r="L21" t="n">
-        <v>60.95584873657292</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M21" t="n">
-        <v>71.13260037393833</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N21" t="n">
-        <v>73.01526864417811</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O21" t="n">
-        <v>66.79470611883387</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P21" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.83595640095381</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R21" t="n">
-        <v>17.43038066286085</v>
+        <v>17.43038066286086</v>
       </c>
       <c r="S21" t="n">
-        <v>5.214584777282822</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T21" t="n">
         <v>1.131571053204939</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0184696036975779</v>
+        <v>0.01846960369757791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2353612886489161</v>
+        <v>0.2353612886489162</v>
       </c>
       <c r="H22" t="n">
-        <v>2.092575820896728</v>
+        <v>2.092575820896729</v>
       </c>
       <c r="I22" t="n">
-        <v>7.077955844096498</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J22" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K22" t="n">
-        <v>27.34470244484679</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L22" t="n">
-        <v>34.99180467785795</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M22" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N22" t="n">
-        <v>36.01669610752007</v>
+        <v>36.01669610752008</v>
       </c>
       <c r="O22" t="n">
-        <v>33.26724832648499</v>
+        <v>33.267248326485</v>
       </c>
       <c r="P22" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R22" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S22" t="n">
-        <v>4.101705366727018</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T22" t="n">
         <v>1.00563459695446</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01283788847175907</v>
+        <v>0.01283788847175908</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H23" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I23" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J23" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K23" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L23" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M23" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N23" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O23" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P23" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R23" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S23" t="n">
         <v>11.95654699937206</v>
@@ -32740,7 +32740,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H24" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I24" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J24" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K24" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L24" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M24" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N24" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O24" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P24" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R24" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S24" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T24" t="n">
         <v>1.131571053204939</v>
@@ -32862,19 +32862,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I25" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J25" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K25" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L25" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M25" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N25" t="n">
         <v>36.01669610752008</v>
@@ -32883,16 +32883,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P25" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R25" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S25" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T25" t="n">
         <v>1.00563459695446</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H26" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I26" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J26" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K26" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L26" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M26" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N26" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O26" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P26" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R26" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S26" t="n">
         <v>11.95654699937206</v>
@@ -32977,7 +32977,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H27" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I27" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J27" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K27" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L27" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M27" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N27" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O27" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P27" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R27" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S27" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T27" t="n">
         <v>1.131571053204939</v>
@@ -33099,19 +33099,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I28" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J28" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K28" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L28" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M28" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N28" t="n">
         <v>36.01669610752008</v>
@@ -33120,16 +33120,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P28" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R28" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S28" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T28" t="n">
         <v>1.00563459695446</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H29" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I29" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J29" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K29" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L29" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M29" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N29" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O29" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P29" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R29" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S29" t="n">
         <v>11.95654699937206</v>
@@ -33214,7 +33214,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,40 +33254,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H30" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I30" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J30" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K30" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L30" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M30" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N30" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O30" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P30" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R30" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S30" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T30" t="n">
         <v>1.131571053204939</v>
@@ -33336,19 +33336,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I31" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J31" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K31" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L31" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M31" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N31" t="n">
         <v>36.01669610752008</v>
@@ -33357,16 +33357,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P31" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R31" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S31" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T31" t="n">
         <v>1.00563459695446</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H32" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I32" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J32" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K32" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L32" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M32" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N32" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O32" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P32" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R32" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S32" t="n">
         <v>11.95654699937206</v>
@@ -33451,7 +33451,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,40 +33491,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H33" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I33" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J33" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K33" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L33" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M33" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N33" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O33" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P33" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R33" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S33" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T33" t="n">
         <v>1.131571053204939</v>
@@ -33573,19 +33573,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I34" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J34" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K34" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L34" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M34" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N34" t="n">
         <v>36.01669610752008</v>
@@ -33594,16 +33594,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P34" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R34" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S34" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T34" t="n">
         <v>1.00563459695446</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H35" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I35" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J35" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K35" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L35" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M35" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N35" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O35" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P35" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R35" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S35" t="n">
         <v>11.95654699937206</v>
@@ -33688,7 +33688,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H36" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I36" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J36" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K36" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L36" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M36" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N36" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O36" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P36" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R36" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S36" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T36" t="n">
         <v>1.131571053204939</v>
@@ -33810,19 +33810,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I37" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J37" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K37" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L37" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M37" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N37" t="n">
         <v>36.01669610752008</v>
@@ -33831,16 +33831,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P37" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R37" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S37" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T37" t="n">
         <v>1.00563459695446</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H38" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I38" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J38" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K38" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L38" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M38" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N38" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O38" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P38" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R38" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S38" t="n">
         <v>11.95654699937206</v>
@@ -33925,7 +33925,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,40 +33965,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H39" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I39" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J39" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K39" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L39" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M39" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N39" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O39" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P39" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R39" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S39" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T39" t="n">
         <v>1.131571053204939</v>
@@ -34047,19 +34047,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I40" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J40" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K40" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L40" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M40" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N40" t="n">
         <v>36.01669610752008</v>
@@ -34068,16 +34068,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P40" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R40" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S40" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T40" t="n">
         <v>1.00563459695446</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H41" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I41" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J41" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K41" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L41" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M41" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N41" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O41" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P41" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R41" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S41" t="n">
         <v>11.95654699937206</v>
@@ -34162,7 +34162,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H42" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I42" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J42" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K42" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L42" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M42" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N42" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O42" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P42" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R42" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S42" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T42" t="n">
         <v>1.131571053204939</v>
@@ -34284,19 +34284,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I43" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J43" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K43" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L43" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M43" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N43" t="n">
         <v>36.01669610752008</v>
@@ -34305,16 +34305,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P43" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R43" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S43" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T43" t="n">
         <v>1.00563459695446</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5246976192812746</v>
+        <v>0.5246976192812747</v>
       </c>
       <c r="H44" t="n">
-        <v>5.373559493464355</v>
+        <v>5.373559493464356</v>
       </c>
       <c r="I44" t="n">
         <v>20.22840496734136</v>
       </c>
       <c r="J44" t="n">
-        <v>44.53305456447412</v>
+        <v>44.53305456447413</v>
       </c>
       <c r="K44" t="n">
-        <v>66.74350478865048</v>
+        <v>66.7435047886505</v>
       </c>
       <c r="L44" t="n">
-        <v>82.80121955472981</v>
+        <v>82.80121955472983</v>
       </c>
       <c r="M44" t="n">
-        <v>92.13231084162318</v>
+        <v>92.13231084162319</v>
       </c>
       <c r="N44" t="n">
-        <v>93.6231079524061</v>
+        <v>93.62310795240613</v>
       </c>
       <c r="O44" t="n">
-        <v>88.40564600067793</v>
+        <v>88.40564600067795</v>
       </c>
       <c r="P44" t="n">
-        <v>75.45217352467145</v>
+        <v>75.45217352467147</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.66144003416078</v>
+        <v>56.6614400341608</v>
       </c>
       <c r="R44" t="n">
-        <v>32.95953682717739</v>
+        <v>32.9595368271774</v>
       </c>
       <c r="S44" t="n">
         <v>11.95654699937206</v>
@@ -34399,7 +34399,7 @@
         <v>2.296863828403781</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04197580954250196</v>
+        <v>0.04197580954250197</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.2807379762031841</v>
       </c>
       <c r="H45" t="n">
-        <v>2.711337822804436</v>
+        <v>2.711337822804437</v>
       </c>
       <c r="I45" t="n">
-        <v>9.665759268399102</v>
+        <v>9.665759268399105</v>
       </c>
       <c r="J45" t="n">
-        <v>26.52358221663504</v>
+        <v>26.52358221663505</v>
       </c>
       <c r="K45" t="n">
         <v>45.33302662224838</v>
       </c>
       <c r="L45" t="n">
-        <v>60.95584873657294</v>
+        <v>60.95584873657295</v>
       </c>
       <c r="M45" t="n">
-        <v>71.13260037393835</v>
+        <v>71.13260037393836</v>
       </c>
       <c r="N45" t="n">
-        <v>73.01526864417814</v>
+        <v>73.01526864417815</v>
       </c>
       <c r="O45" t="n">
-        <v>66.79470611883389</v>
+        <v>66.7947061188339</v>
       </c>
       <c r="P45" t="n">
-        <v>53.60864038567644</v>
+        <v>53.60864038567646</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.83595640095382</v>
+        <v>35.83595640095383</v>
       </c>
       <c r="R45" t="n">
         <v>17.43038066286086</v>
       </c>
       <c r="S45" t="n">
-        <v>5.214584777282823</v>
+        <v>5.214584777282825</v>
       </c>
       <c r="T45" t="n">
         <v>1.131571053204939</v>
@@ -34521,19 +34521,19 @@
         <v>2.092575820896729</v>
       </c>
       <c r="I46" t="n">
-        <v>7.077955844096499</v>
+        <v>7.0779558440965</v>
       </c>
       <c r="J46" t="n">
-        <v>16.64004310747837</v>
+        <v>16.64004310747838</v>
       </c>
       <c r="K46" t="n">
-        <v>27.3447024448468</v>
+        <v>27.34470244484681</v>
       </c>
       <c r="L46" t="n">
-        <v>34.99180467785796</v>
+        <v>34.99180467785797</v>
       </c>
       <c r="M46" t="n">
-        <v>36.89395181975691</v>
+        <v>36.89395181975693</v>
       </c>
       <c r="N46" t="n">
         <v>36.01669610752008</v>
@@ -34542,16 +34542,16 @@
         <v>33.267248326485</v>
       </c>
       <c r="P46" t="n">
-        <v>28.46587803804708</v>
+        <v>28.46587803804709</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.70829845222879</v>
+        <v>19.7082984522288</v>
       </c>
       <c r="R46" t="n">
         <v>10.58269939688672</v>
       </c>
       <c r="S46" t="n">
-        <v>4.101705366727019</v>
+        <v>4.10170536672702</v>
       </c>
       <c r="T46" t="n">
         <v>1.00563459695446</v>
@@ -35176,22 +35176,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.939619267058895</v>
+      </c>
+      <c r="N8" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.999161925771512</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>6.999161925771512</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.999161925771512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991168</v>
       </c>
       <c r="K11" t="n">
-        <v>189.2671290938058</v>
+        <v>189.2671290938057</v>
       </c>
       <c r="L11" t="n">
-        <v>287.2966280914607</v>
+        <v>287.2966280914606</v>
       </c>
       <c r="M11" t="n">
-        <v>335.0388082775781</v>
+        <v>335.038808277578</v>
       </c>
       <c r="N11" t="n">
-        <v>324.7861723341935</v>
+        <v>324.7861723341934</v>
       </c>
       <c r="O11" t="n">
         <v>260.0920783777885</v>
       </c>
       <c r="P11" t="n">
-        <v>184.6706591616256</v>
+        <v>184.6706591616255</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.72098269287338</v>
+        <v>60.72098269287336</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.99157297066019</v>
+        <v>33.99157297066017</v>
       </c>
       <c r="K12" t="n">
-        <v>185.9814701153301</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>311.5392875667931</v>
@@ -35498,16 +35498,16 @@
         <v>416.8851835999704</v>
       </c>
       <c r="N12" t="n">
-        <v>27.94956291857929</v>
+        <v>425.7369319144502</v>
       </c>
       <c r="O12" t="n">
-        <v>337.3801798332992</v>
+        <v>243.4083868651242</v>
       </c>
       <c r="P12" t="n">
-        <v>254.1848725422391</v>
+        <v>254.184872542239</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.8341059123659</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.02488403039262</v>
+        <v>50.02488403039266</v>
       </c>
       <c r="K13" t="n">
-        <v>134.7939785777066</v>
+        <v>134.7939785777067</v>
       </c>
       <c r="L13" t="n">
         <v>194.6766207575604</v>
@@ -35577,7 +35577,7 @@
         <v>209.3150456673587</v>
       </c>
       <c r="N13" t="n">
-        <v>212.4374016228511</v>
+        <v>212.4374016228512</v>
       </c>
       <c r="O13" t="n">
         <v>190.0591422071493</v>
@@ -35586,7 +35586,7 @@
         <v>156.8115857874241</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.1712844270738</v>
+        <v>62.17128442707383</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991168</v>
       </c>
       <c r="K14" t="n">
-        <v>189.2671290938058</v>
+        <v>189.2671290938057</v>
       </c>
       <c r="L14" t="n">
-        <v>287.2966280914607</v>
+        <v>287.2966280914606</v>
       </c>
       <c r="M14" t="n">
-        <v>335.0388082775781</v>
+        <v>335.038808277578</v>
       </c>
       <c r="N14" t="n">
-        <v>324.7861723341935</v>
+        <v>324.7861723341934</v>
       </c>
       <c r="O14" t="n">
         <v>260.0920783777885</v>
       </c>
       <c r="P14" t="n">
-        <v>184.6706591616256</v>
+        <v>184.6706591616255</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.72098269287338</v>
+        <v>60.72098269287336</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>133.7249616569125</v>
+        <v>311.5392875667931</v>
       </c>
       <c r="M15" t="n">
         <v>416.8851835999704</v>
@@ -35741,10 +35741,10 @@
         <v>337.3801798332992</v>
       </c>
       <c r="P15" t="n">
-        <v>254.1848725422391</v>
+        <v>194.2046525447242</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.8341059123659</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K17" t="n">
         <v>189.2671290938058</v>
@@ -35890,7 +35890,7 @@
         <v>287.2966280914607</v>
       </c>
       <c r="M17" t="n">
-        <v>335.038808277578</v>
+        <v>335.0388082775781</v>
       </c>
       <c r="N17" t="n">
         <v>324.7861723341935</v>
@@ -35902,7 +35902,7 @@
         <v>184.6706591616256</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.72098269287338</v>
+        <v>60.72098269287341</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>185.9814701153302</v>
       </c>
       <c r="L18" t="n">
-        <v>133.7249616569125</v>
+        <v>311.5392875667931</v>
       </c>
       <c r="M18" t="n">
         <v>416.8851835999704</v>
       </c>
       <c r="N18" t="n">
-        <v>425.7369319144502</v>
+        <v>27.94956291857872</v>
       </c>
       <c r="O18" t="n">
-        <v>337.3801798332992</v>
+        <v>337.3801798332993</v>
       </c>
       <c r="P18" t="n">
         <v>254.1848725422391</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.57029272701344</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L19" t="n">
-        <v>72.45293490686723</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M19" t="n">
-        <v>87.09135981666547</v>
+        <v>87.09135981666549</v>
       </c>
       <c r="N19" t="n">
         <v>90.21371577215797</v>
       </c>
       <c r="O19" t="n">
-        <v>67.83545635645605</v>
+        <v>67.83545635645606</v>
       </c>
       <c r="P19" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K20" t="n">
         <v>189.2671290938058</v>
@@ -36139,7 +36139,7 @@
         <v>184.6706591616256</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.72098269287338</v>
+        <v>60.72098269287289</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>185.9814701153302</v>
       </c>
       <c r="L21" t="n">
         <v>311.5392875667931</v>
@@ -36209,16 +36209,16 @@
         <v>416.8851835999704</v>
       </c>
       <c r="N21" t="n">
-        <v>213.9310330339094</v>
+        <v>145.7836688309445</v>
       </c>
       <c r="O21" t="n">
-        <v>337.3801798332992</v>
+        <v>337.3801798332993</v>
       </c>
       <c r="P21" t="n">
         <v>254.1848725422391</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.8341059123659</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.57029272701344</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L22" t="n">
-        <v>72.45293490686723</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M22" t="n">
-        <v>87.09135981666547</v>
+        <v>87.09135981666549</v>
       </c>
       <c r="N22" t="n">
         <v>90.21371577215797</v>
       </c>
       <c r="O22" t="n">
-        <v>67.83545635645605</v>
+        <v>67.83545635645606</v>
       </c>
       <c r="P22" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>10.10425330824942</v>
       </c>
       <c r="J23" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K23" t="n">
         <v>189.2671290938058</v>
@@ -36376,13 +36376,13 @@
         <v>184.6706591616256</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.7209826928734</v>
+        <v>60.72098269287341</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.10425330824946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K24" t="n">
         <v>185.9814701153302</v>
@@ -36446,16 +36446,16 @@
         <v>416.8851835999704</v>
       </c>
       <c r="N24" t="n">
-        <v>38.05381622682864</v>
+        <v>428.2887713979112</v>
       </c>
       <c r="O24" t="n">
-        <v>337.3801798332993</v>
+        <v>319.1642031168217</v>
       </c>
       <c r="P24" t="n">
-        <v>254.1848725422391</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.8341059123659</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L25" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M25" t="n">
         <v>87.09135981666549</v>
@@ -36531,7 +36531,7 @@
         <v>67.83545635645606</v>
       </c>
       <c r="P25" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>331.4516549268627</v>
       </c>
       <c r="L26" t="n">
-        <v>429.4811539245175</v>
+        <v>429.4811539245176</v>
       </c>
       <c r="M26" t="n">
         <v>477.2233341106349</v>
       </c>
       <c r="N26" t="n">
-        <v>466.9706981672503</v>
+        <v>466.9706981672504</v>
       </c>
       <c r="O26" t="n">
         <v>402.2766042108454</v>
       </c>
       <c r="P26" t="n">
-        <v>326.8551849946824</v>
+        <v>326.8551849946825</v>
       </c>
       <c r="Q26" t="n">
         <v>202.9055085259303</v>
       </c>
       <c r="R26" t="n">
-        <v>33.29323995935717</v>
+        <v>33.29323995935721</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K27" t="n">
         <v>185.9814701153302</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10.99456745260998</v>
+        <v>69.98572401275632</v>
       </c>
       <c r="K28" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L28" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2758856497223</v>
+        <v>170.2847290895756</v>
       </c>
       <c r="N28" t="n">
-        <v>232.3982416052148</v>
+        <v>232.3982416052149</v>
       </c>
       <c r="O28" t="n">
         <v>210.0199821895129</v>
       </c>
       <c r="P28" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.13212440943747</v>
+        <v>82.13212440943749</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>331.4516549268627</v>
       </c>
       <c r="L29" t="n">
-        <v>429.4811539245175</v>
+        <v>429.4811539245176</v>
       </c>
       <c r="M29" t="n">
-        <v>477.2233341106349</v>
+        <v>477.2233341106351</v>
       </c>
       <c r="N29" t="n">
-        <v>466.9706981672503</v>
+        <v>466.9706981672504</v>
       </c>
       <c r="O29" t="n">
         <v>402.2766042108454</v>
@@ -36853,7 +36853,7 @@
         <v>202.9055085259303</v>
       </c>
       <c r="R29" t="n">
-        <v>33.2932399593572</v>
+        <v>33.29323995935727</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K30" t="n">
         <v>185.9814701153302</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.98572401275632</v>
+        <v>69.98572401275638</v>
       </c>
       <c r="K31" t="n">
-        <v>35.71126057630426</v>
+        <v>154.7548185600704</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6374607399241</v>
+        <v>214.6374607399242</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2758856497224</v>
+        <v>87.09135981666549</v>
       </c>
       <c r="N31" t="n">
         <v>90.21371577215797</v>
       </c>
       <c r="O31" t="n">
-        <v>67.83545635645606</v>
+        <v>210.019982189513</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7724257697878</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>23.1409678492897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>187.9453716226541</v>
       </c>
       <c r="K32" t="n">
-        <v>333.3387232865482</v>
+        <v>333.3387232865483</v>
       </c>
       <c r="L32" t="n">
         <v>431.3682222842031</v>
@@ -37078,10 +37078,10 @@
         <v>479.1104024703205</v>
       </c>
       <c r="N32" t="n">
-        <v>422.9933989223713</v>
+        <v>422.993398922372</v>
       </c>
       <c r="O32" t="n">
-        <v>404.1636725705309</v>
+        <v>404.163672570531</v>
       </c>
       <c r="P32" t="n">
         <v>328.742253354368</v>
@@ -37090,7 +37090,7 @@
         <v>204.7925768856158</v>
       </c>
       <c r="R32" t="n">
-        <v>35.18030831904274</v>
+        <v>35.18030831904275</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K33" t="n">
         <v>185.9814701153302</v>
@@ -37227,16 +37227,16 @@
         <v>71.87279237244186</v>
       </c>
       <c r="K34" t="n">
-        <v>141.4284454717505</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L34" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M34" t="n">
         <v>87.09135981666549</v>
       </c>
       <c r="N34" t="n">
-        <v>90.21371577215797</v>
+        <v>135.052675747772</v>
       </c>
       <c r="O34" t="n">
         <v>211.9070505491985</v>
@@ -37245,7 +37245,7 @@
         <v>178.6594941294734</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.01919276912304</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>33.31029560523012</v>
       </c>
       <c r="J35" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K35" t="n">
         <v>189.2671290938058</v>
@@ -37312,7 +37312,7 @@
         <v>287.2966280914607</v>
       </c>
       <c r="M35" t="n">
-        <v>368.3491038828083</v>
+        <v>335.0388082775781</v>
       </c>
       <c r="N35" t="n">
         <v>324.7861723341935</v>
@@ -37324,7 +37324,7 @@
         <v>184.6706591616256</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.7209826928734</v>
+        <v>60.72098269287341</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>185.9814701153302</v>
       </c>
       <c r="L36" t="n">
         <v>311.5392875667931</v>
@@ -37397,13 +37397,13 @@
         <v>434.1494810596487</v>
       </c>
       <c r="O36" t="n">
-        <v>150.47202741279</v>
+        <v>336.5095357520649</v>
       </c>
       <c r="P36" t="n">
-        <v>254.1848725422391</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.8341059123659</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L37" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M37" t="n">
         <v>87.09135981666549</v>
@@ -37479,7 +37479,7 @@
         <v>67.83545635645606</v>
       </c>
       <c r="P37" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.550446961381046</v>
       </c>
       <c r="J38" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K38" t="n">
         <v>189.2671290938058</v>
@@ -37558,16 +37558,16 @@
         <v>260.0920783777885</v>
       </c>
       <c r="P38" t="n">
-        <v>217.9809547668567</v>
+        <v>184.6706591616256</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.7209826928734</v>
+        <v>60.72098269287341</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.75984864384942</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>185.9814701153302</v>
       </c>
       <c r="L39" t="n">
         <v>311.5392875667931</v>
@@ -37631,16 +37631,16 @@
         <v>416.8851835999704</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1494810596489</v>
+        <v>95.25143149447005</v>
       </c>
       <c r="O39" t="n">
-        <v>302.297706295817</v>
+        <v>337.3801798332993</v>
       </c>
       <c r="P39" t="n">
         <v>254.1848725422391</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>117.8341059123659</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L40" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M40" t="n">
         <v>87.09135981666549</v>
@@ -37716,7 +37716,7 @@
         <v>67.83545635645606</v>
       </c>
       <c r="P40" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.912501823384499</v>
+        <v>8.912501823384531</v>
       </c>
       <c r="J41" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K41" t="n">
-        <v>383.175533817973</v>
+        <v>189.2671290938058</v>
       </c>
       <c r="L41" t="n">
         <v>287.2966280914607</v>
@@ -37795,13 +37795,13 @@
         <v>260.0920783777885</v>
       </c>
       <c r="P41" t="n">
-        <v>184.6706591616256</v>
+        <v>285.0842949132129</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.1517372949282</v>
+        <v>254.6293874170406</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.01711885046751</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.99157297066019</v>
+        <v>6.719628358622082</v>
       </c>
       <c r="K42" t="n">
         <v>185.9814701153302</v>
@@ -37871,7 +37871,7 @@
         <v>443.4731686802238</v>
       </c>
       <c r="O42" t="n">
-        <v>310.1082352212613</v>
+        <v>337.3801798332993</v>
       </c>
       <c r="P42" t="n">
         <v>254.1848725422391</v>
@@ -37932,16 +37932,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.7019617238834738</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L43" t="n">
-        <v>73.15489663075086</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M43" t="n">
         <v>87.09135981666549</v>
@@ -37953,7 +37953,7 @@
         <v>67.83545635645606</v>
       </c>
       <c r="P43" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.912501823384531</v>
       </c>
       <c r="J44" t="n">
-        <v>43.8737774299117</v>
+        <v>43.87377742991172</v>
       </c>
       <c r="K44" t="n">
-        <v>194.8589086838754</v>
+        <v>289.680764845393</v>
       </c>
       <c r="L44" t="n">
         <v>287.2966280914607</v>
       </c>
       <c r="M44" t="n">
-        <v>523.7902851129478</v>
+        <v>335.0388082775781</v>
       </c>
       <c r="N44" t="n">
         <v>324.7861723341935</v>
@@ -38032,13 +38032,13 @@
         <v>260.0920783777885</v>
       </c>
       <c r="P44" t="n">
-        <v>378.5790638857927</v>
+        <v>184.6706591616256</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.7209826928734</v>
+        <v>254.6293874170406</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.01711885046751</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.99157297066019</v>
+        <v>33.9915729706602</v>
       </c>
       <c r="K45" t="n">
         <v>185.9814701153302</v>
@@ -38102,10 +38102,10 @@
         <v>311.5392875667931</v>
       </c>
       <c r="M45" t="n">
-        <v>389.6132389879324</v>
+        <v>416.8851835999704</v>
       </c>
       <c r="N45" t="n">
-        <v>443.4731686802238</v>
+        <v>416.2012240681858</v>
       </c>
       <c r="O45" t="n">
         <v>337.3801798332993</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7019617238836102</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.7019617238834738</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.57029272701345</v>
+        <v>12.57029272701346</v>
       </c>
       <c r="L46" t="n">
-        <v>72.45293490686724</v>
+        <v>72.45293490686726</v>
       </c>
       <c r="M46" t="n">
         <v>87.09135981666549</v>
@@ -38190,7 +38190,7 @@
         <v>67.83545635645606</v>
       </c>
       <c r="P46" t="n">
-        <v>34.58789993673092</v>
+        <v>34.58789993673093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
